--- a/output_excel.xlsx
+++ b/output_excel.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Attendance" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Attendance" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H152"/>
+  <dimension ref="A1:L152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,6 +490,26 @@
           <t>01/10/2024</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Total Attendance Marked</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Sum of Attendance</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Total Attendance Allowed</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Proxy</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -518,6 +538,18 @@
       <c r="H2" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I2" t="n">
+        <v>12</v>
+      </c>
+      <c r="J2" t="n">
+        <v>12</v>
+      </c>
+      <c r="K2" t="n">
+        <v>14</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -546,6 +578,18 @@
       <c r="H3" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I3" t="n">
+        <v>14</v>
+      </c>
+      <c r="J3" t="n">
+        <v>14</v>
+      </c>
+      <c r="K3" t="n">
+        <v>14</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -574,6 +618,18 @@
       <c r="H4" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I4" t="n">
+        <v>14</v>
+      </c>
+      <c r="J4" t="n">
+        <v>14</v>
+      </c>
+      <c r="K4" t="n">
+        <v>14</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -602,6 +658,18 @@
       <c r="H5" s="4" t="n">
         <v>1</v>
       </c>
+      <c r="I5" t="n">
+        <v>12</v>
+      </c>
+      <c r="J5" t="n">
+        <v>12</v>
+      </c>
+      <c r="K5" t="n">
+        <v>14</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -630,6 +698,18 @@
       <c r="H6" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I6" t="n">
+        <v>13</v>
+      </c>
+      <c r="J6" t="n">
+        <v>13</v>
+      </c>
+      <c r="K6" t="n">
+        <v>14</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -658,6 +738,18 @@
       <c r="H7" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>13</v>
+      </c>
+      <c r="J7" t="n">
+        <v>12</v>
+      </c>
+      <c r="K7" t="n">
+        <v>14</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -686,6 +778,18 @@
       <c r="H8" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>12</v>
+      </c>
+      <c r="J8" t="n">
+        <v>10</v>
+      </c>
+      <c r="K8" t="n">
+        <v>14</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -714,6 +818,18 @@
       <c r="H9" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I9" t="n">
+        <v>12</v>
+      </c>
+      <c r="J9" t="n">
+        <v>12</v>
+      </c>
+      <c r="K9" t="n">
+        <v>14</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -742,6 +858,18 @@
       <c r="H10" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I10" t="n">
+        <v>14</v>
+      </c>
+      <c r="J10" t="n">
+        <v>14</v>
+      </c>
+      <c r="K10" t="n">
+        <v>14</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -770,6 +898,18 @@
       <c r="H11" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I11" t="n">
+        <v>14</v>
+      </c>
+      <c r="J11" t="n">
+        <v>14</v>
+      </c>
+      <c r="K11" t="n">
+        <v>14</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -798,6 +938,18 @@
       <c r="H12" s="4" t="n">
         <v>1</v>
       </c>
+      <c r="I12" t="n">
+        <v>8</v>
+      </c>
+      <c r="J12" t="n">
+        <v>8</v>
+      </c>
+      <c r="K12" t="n">
+        <v>14</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -826,6 +978,18 @@
       <c r="H13" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I13" t="n">
+        <v>14</v>
+      </c>
+      <c r="J13" t="n">
+        <v>14</v>
+      </c>
+      <c r="K13" t="n">
+        <v>14</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -854,6 +1018,18 @@
       <c r="H14" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I14" t="n">
+        <v>12</v>
+      </c>
+      <c r="J14" t="n">
+        <v>12</v>
+      </c>
+      <c r="K14" t="n">
+        <v>14</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -882,6 +1058,18 @@
       <c r="H15" s="4" t="n">
         <v>1</v>
       </c>
+      <c r="I15" t="n">
+        <v>10</v>
+      </c>
+      <c r="J15" t="n">
+        <v>10</v>
+      </c>
+      <c r="K15" t="n">
+        <v>14</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -910,6 +1098,18 @@
       <c r="H16" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>9</v>
+      </c>
+      <c r="J16" t="n">
+        <v>9</v>
+      </c>
+      <c r="K16" t="n">
+        <v>14</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -938,6 +1138,18 @@
       <c r="H17" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I17" t="n">
+        <v>14</v>
+      </c>
+      <c r="J17" t="n">
+        <v>14</v>
+      </c>
+      <c r="K17" t="n">
+        <v>14</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -966,6 +1178,18 @@
       <c r="H18" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>14</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -994,6 +1218,18 @@
       <c r="H19" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>8</v>
+      </c>
+      <c r="J19" t="n">
+        <v>8</v>
+      </c>
+      <c r="K19" t="n">
+        <v>14</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1022,6 +1258,18 @@
       <c r="H20" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I20" t="n">
+        <v>10</v>
+      </c>
+      <c r="J20" t="n">
+        <v>10</v>
+      </c>
+      <c r="K20" t="n">
+        <v>14</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1050,6 +1298,18 @@
       <c r="H21" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I21" t="n">
+        <v>13</v>
+      </c>
+      <c r="J21" t="n">
+        <v>12</v>
+      </c>
+      <c r="K21" t="n">
+        <v>14</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1078,6 +1338,18 @@
       <c r="H22" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I22" t="n">
+        <v>14</v>
+      </c>
+      <c r="J22" t="n">
+        <v>14</v>
+      </c>
+      <c r="K22" t="n">
+        <v>14</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1106,6 +1378,18 @@
       <c r="H23" s="4" t="n">
         <v>1</v>
       </c>
+      <c r="I23" t="n">
+        <v>10</v>
+      </c>
+      <c r="J23" t="n">
+        <v>9</v>
+      </c>
+      <c r="K23" t="n">
+        <v>14</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1134,6 +1418,18 @@
       <c r="H24" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I24" t="n">
+        <v>17</v>
+      </c>
+      <c r="J24" t="n">
+        <v>14</v>
+      </c>
+      <c r="K24" t="n">
+        <v>14</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1162,6 +1458,18 @@
       <c r="H25" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I25" t="n">
+        <v>11</v>
+      </c>
+      <c r="J25" t="n">
+        <v>11</v>
+      </c>
+      <c r="K25" t="n">
+        <v>14</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1190,6 +1498,18 @@
       <c r="H26" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>10</v>
+      </c>
+      <c r="J26" t="n">
+        <v>9</v>
+      </c>
+      <c r="K26" t="n">
+        <v>14</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1218,6 +1538,18 @@
       <c r="H27" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I27" t="n">
+        <v>14</v>
+      </c>
+      <c r="J27" t="n">
+        <v>14</v>
+      </c>
+      <c r="K27" t="n">
+        <v>14</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1246,6 +1578,18 @@
       <c r="H28" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>10</v>
+      </c>
+      <c r="J28" t="n">
+        <v>10</v>
+      </c>
+      <c r="K28" t="n">
+        <v>14</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1274,6 +1618,18 @@
       <c r="H29" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I29" t="n">
+        <v>13</v>
+      </c>
+      <c r="J29" t="n">
+        <v>13</v>
+      </c>
+      <c r="K29" t="n">
+        <v>14</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1302,6 +1658,18 @@
       <c r="H30" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I30" t="n">
+        <v>16</v>
+      </c>
+      <c r="J30" t="n">
+        <v>14</v>
+      </c>
+      <c r="K30" t="n">
+        <v>14</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1330,6 +1698,18 @@
       <c r="H31" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I31" t="n">
+        <v>11</v>
+      </c>
+      <c r="J31" t="n">
+        <v>11</v>
+      </c>
+      <c r="K31" t="n">
+        <v>14</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1358,6 +1738,18 @@
       <c r="H32" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I32" t="n">
+        <v>14</v>
+      </c>
+      <c r="J32" t="n">
+        <v>14</v>
+      </c>
+      <c r="K32" t="n">
+        <v>14</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1386,6 +1778,18 @@
       <c r="H33" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I33" t="n">
+        <v>14</v>
+      </c>
+      <c r="J33" t="n">
+        <v>14</v>
+      </c>
+      <c r="K33" t="n">
+        <v>14</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1414,6 +1818,18 @@
       <c r="H34" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I34" t="n">
+        <v>14</v>
+      </c>
+      <c r="J34" t="n">
+        <v>14</v>
+      </c>
+      <c r="K34" t="n">
+        <v>14</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1442,6 +1858,18 @@
       <c r="H35" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I35" t="n">
+        <v>13</v>
+      </c>
+      <c r="J35" t="n">
+        <v>13</v>
+      </c>
+      <c r="K35" t="n">
+        <v>14</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1470,6 +1898,18 @@
       <c r="H36" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I36" t="n">
+        <v>14</v>
+      </c>
+      <c r="J36" t="n">
+        <v>14</v>
+      </c>
+      <c r="K36" t="n">
+        <v>14</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1498,6 +1938,18 @@
       <c r="H37" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I37" t="n">
+        <v>14</v>
+      </c>
+      <c r="J37" t="n">
+        <v>14</v>
+      </c>
+      <c r="K37" t="n">
+        <v>14</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1526,6 +1978,18 @@
       <c r="H38" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I38" t="n">
+        <v>12</v>
+      </c>
+      <c r="J38" t="n">
+        <v>12</v>
+      </c>
+      <c r="K38" t="n">
+        <v>14</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1554,6 +2018,18 @@
       <c r="H39" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I39" t="n">
+        <v>13</v>
+      </c>
+      <c r="J39" t="n">
+        <v>12</v>
+      </c>
+      <c r="K39" t="n">
+        <v>14</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1582,6 +2058,18 @@
       <c r="H40" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>7</v>
+      </c>
+      <c r="J40" t="n">
+        <v>7</v>
+      </c>
+      <c r="K40" t="n">
+        <v>14</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1610,6 +2098,18 @@
       <c r="H41" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>12</v>
+      </c>
+      <c r="J41" t="n">
+        <v>12</v>
+      </c>
+      <c r="K41" t="n">
+        <v>14</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1638,6 +2138,18 @@
       <c r="H42" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I42" t="n">
+        <v>12</v>
+      </c>
+      <c r="J42" t="n">
+        <v>12</v>
+      </c>
+      <c r="K42" t="n">
+        <v>14</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1666,6 +2178,18 @@
       <c r="H43" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>5</v>
+      </c>
+      <c r="J43" t="n">
+        <v>5</v>
+      </c>
+      <c r="K43" t="n">
+        <v>14</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1694,6 +2218,18 @@
       <c r="H44" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I44" t="n">
+        <v>14</v>
+      </c>
+      <c r="J44" t="n">
+        <v>14</v>
+      </c>
+      <c r="K44" t="n">
+        <v>14</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1722,6 +2258,18 @@
       <c r="H45" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I45" t="n">
+        <v>14</v>
+      </c>
+      <c r="J45" t="n">
+        <v>14</v>
+      </c>
+      <c r="K45" t="n">
+        <v>14</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1750,6 +2298,18 @@
       <c r="H46" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I46" t="n">
+        <v>14</v>
+      </c>
+      <c r="J46" t="n">
+        <v>12</v>
+      </c>
+      <c r="K46" t="n">
+        <v>14</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1778,6 +2338,18 @@
       <c r="H47" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I47" t="n">
+        <v>12</v>
+      </c>
+      <c r="J47" t="n">
+        <v>12</v>
+      </c>
+      <c r="K47" t="n">
+        <v>14</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1806,6 +2378,18 @@
       <c r="H48" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>6</v>
+      </c>
+      <c r="J48" t="n">
+        <v>6</v>
+      </c>
+      <c r="K48" t="n">
+        <v>14</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1834,6 +2418,18 @@
       <c r="H49" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>4</v>
+      </c>
+      <c r="J49" t="n">
+        <v>4</v>
+      </c>
+      <c r="K49" t="n">
+        <v>14</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1862,6 +2458,18 @@
       <c r="H50" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>14</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1890,6 +2498,18 @@
       <c r="H51" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I51" t="n">
+        <v>12</v>
+      </c>
+      <c r="J51" t="n">
+        <v>12</v>
+      </c>
+      <c r="K51" t="n">
+        <v>14</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1918,6 +2538,18 @@
       <c r="H52" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I52" t="n">
+        <v>14</v>
+      </c>
+      <c r="J52" t="n">
+        <v>14</v>
+      </c>
+      <c r="K52" t="n">
+        <v>14</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1946,6 +2578,18 @@
       <c r="H53" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I53" t="n">
+        <v>11</v>
+      </c>
+      <c r="J53" t="n">
+        <v>11</v>
+      </c>
+      <c r="K53" t="n">
+        <v>14</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1974,6 +2618,18 @@
       <c r="H54" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I54" t="n">
+        <v>12</v>
+      </c>
+      <c r="J54" t="n">
+        <v>12</v>
+      </c>
+      <c r="K54" t="n">
+        <v>14</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -2002,6 +2658,18 @@
       <c r="H55" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="I55" t="n">
+        <v>8</v>
+      </c>
+      <c r="J55" t="n">
+        <v>6</v>
+      </c>
+      <c r="K55" t="n">
+        <v>14</v>
+      </c>
+      <c r="L55" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -2030,6 +2698,18 @@
       <c r="H56" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I56" t="n">
+        <v>12</v>
+      </c>
+      <c r="J56" t="n">
+        <v>12</v>
+      </c>
+      <c r="K56" t="n">
+        <v>14</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -2058,6 +2738,18 @@
       <c r="H57" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I57" t="n">
+        <v>14</v>
+      </c>
+      <c r="J57" t="n">
+        <v>12</v>
+      </c>
+      <c r="K57" t="n">
+        <v>14</v>
+      </c>
+      <c r="L57" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -2086,6 +2778,18 @@
       <c r="H58" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>11</v>
+      </c>
+      <c r="J58" t="n">
+        <v>11</v>
+      </c>
+      <c r="K58" t="n">
+        <v>14</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -2114,6 +2818,18 @@
       <c r="H59" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I59" t="n">
+        <v>12</v>
+      </c>
+      <c r="J59" t="n">
+        <v>12</v>
+      </c>
+      <c r="K59" t="n">
+        <v>14</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -2142,6 +2858,18 @@
       <c r="H60" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I60" t="n">
+        <v>10</v>
+      </c>
+      <c r="J60" t="n">
+        <v>10</v>
+      </c>
+      <c r="K60" t="n">
+        <v>14</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -2170,6 +2898,18 @@
       <c r="H61" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>14</v>
+      </c>
+      <c r="K61" t="n">
+        <v>14</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -2198,6 +2938,18 @@
       <c r="H62" s="4" t="n">
         <v>1</v>
       </c>
+      <c r="I62" t="n">
+        <v>10</v>
+      </c>
+      <c r="J62" t="n">
+        <v>10</v>
+      </c>
+      <c r="K62" t="n">
+        <v>14</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -2226,6 +2978,18 @@
       <c r="H63" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I63" t="n">
+        <v>11</v>
+      </c>
+      <c r="J63" t="n">
+        <v>11</v>
+      </c>
+      <c r="K63" t="n">
+        <v>14</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -2254,6 +3018,18 @@
       <c r="H64" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I64" t="n">
+        <v>15</v>
+      </c>
+      <c r="J64" t="n">
+        <v>14</v>
+      </c>
+      <c r="K64" t="n">
+        <v>14</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -2282,6 +3058,18 @@
       <c r="H65" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="I65" t="n">
+        <v>8</v>
+      </c>
+      <c r="J65" t="n">
+        <v>8</v>
+      </c>
+      <c r="K65" t="n">
+        <v>14</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -2310,6 +3098,18 @@
       <c r="H66" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I66" t="n">
+        <v>12</v>
+      </c>
+      <c r="J66" t="n">
+        <v>12</v>
+      </c>
+      <c r="K66" t="n">
+        <v>14</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -2338,6 +3138,18 @@
       <c r="H67" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>8</v>
+      </c>
+      <c r="J67" t="n">
+        <v>8</v>
+      </c>
+      <c r="K67" t="n">
+        <v>14</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -2366,6 +3178,18 @@
       <c r="H68" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I68" t="n">
+        <v>13</v>
+      </c>
+      <c r="J68" t="n">
+        <v>12</v>
+      </c>
+      <c r="K68" t="n">
+        <v>14</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -2394,6 +3218,18 @@
       <c r="H69" s="4" t="n">
         <v>1</v>
       </c>
+      <c r="I69" t="n">
+        <v>13</v>
+      </c>
+      <c r="J69" t="n">
+        <v>13</v>
+      </c>
+      <c r="K69" t="n">
+        <v>14</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -2422,6 +3258,18 @@
       <c r="H70" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>9</v>
+      </c>
+      <c r="J70" t="n">
+        <v>8</v>
+      </c>
+      <c r="K70" t="n">
+        <v>14</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -2450,6 +3298,18 @@
       <c r="H71" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I71" t="n">
+        <v>14</v>
+      </c>
+      <c r="J71" t="n">
+        <v>14</v>
+      </c>
+      <c r="K71" t="n">
+        <v>14</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -2478,6 +3338,18 @@
       <c r="H72" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I72" t="n">
+        <v>12</v>
+      </c>
+      <c r="J72" t="n">
+        <v>12</v>
+      </c>
+      <c r="K72" t="n">
+        <v>14</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -2506,6 +3378,18 @@
       <c r="H73" s="4" t="n">
         <v>1</v>
       </c>
+      <c r="I73" t="n">
+        <v>13</v>
+      </c>
+      <c r="J73" t="n">
+        <v>13</v>
+      </c>
+      <c r="K73" t="n">
+        <v>14</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -2534,6 +3418,18 @@
       <c r="H74" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>7</v>
+      </c>
+      <c r="J74" t="n">
+        <v>7</v>
+      </c>
+      <c r="K74" t="n">
+        <v>14</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -2562,6 +3458,18 @@
       <c r="H75" s="4" t="n">
         <v>1</v>
       </c>
+      <c r="I75" t="n">
+        <v>8</v>
+      </c>
+      <c r="J75" t="n">
+        <v>8</v>
+      </c>
+      <c r="K75" t="n">
+        <v>14</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -2590,6 +3498,18 @@
       <c r="H76" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I76" t="n">
+        <v>15</v>
+      </c>
+      <c r="J76" t="n">
+        <v>14</v>
+      </c>
+      <c r="K76" t="n">
+        <v>14</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -2618,6 +3538,18 @@
       <c r="H77" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I77" t="n">
+        <v>14</v>
+      </c>
+      <c r="J77" t="n">
+        <v>14</v>
+      </c>
+      <c r="K77" t="n">
+        <v>14</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -2646,6 +3578,18 @@
       <c r="H78" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I78" t="n">
+        <v>13</v>
+      </c>
+      <c r="J78" t="n">
+        <v>12</v>
+      </c>
+      <c r="K78" t="n">
+        <v>14</v>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -2674,6 +3618,18 @@
       <c r="H79" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>12</v>
+      </c>
+      <c r="J79" t="n">
+        <v>12</v>
+      </c>
+      <c r="K79" t="n">
+        <v>14</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -2702,6 +3658,18 @@
       <c r="H80" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I80" t="n">
+        <v>14</v>
+      </c>
+      <c r="J80" t="n">
+        <v>10</v>
+      </c>
+      <c r="K80" t="n">
+        <v>14</v>
+      </c>
+      <c r="L80" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -2730,6 +3698,18 @@
       <c r="H81" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I81" t="n">
+        <v>14</v>
+      </c>
+      <c r="J81" t="n">
+        <v>13</v>
+      </c>
+      <c r="K81" t="n">
+        <v>14</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -2758,6 +3738,18 @@
       <c r="H82" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="I82" t="n">
+        <v>10</v>
+      </c>
+      <c r="J82" t="n">
+        <v>10</v>
+      </c>
+      <c r="K82" t="n">
+        <v>14</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -2786,6 +3778,18 @@
       <c r="H83" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>10</v>
+      </c>
+      <c r="J83" t="n">
+        <v>10</v>
+      </c>
+      <c r="K83" t="n">
+        <v>14</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -2814,6 +3818,18 @@
       <c r="H84" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>10</v>
+      </c>
+      <c r="J84" t="n">
+        <v>10</v>
+      </c>
+      <c r="K84" t="n">
+        <v>14</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -2842,6 +3858,18 @@
       <c r="H85" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I85" t="n">
+        <v>11</v>
+      </c>
+      <c r="J85" t="n">
+        <v>11</v>
+      </c>
+      <c r="K85" t="n">
+        <v>14</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -2870,6 +3898,18 @@
       <c r="H86" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I86" t="n">
+        <v>12</v>
+      </c>
+      <c r="J86" t="n">
+        <v>10</v>
+      </c>
+      <c r="K86" t="n">
+        <v>14</v>
+      </c>
+      <c r="L86" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -2898,6 +3938,18 @@
       <c r="H87" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>8</v>
+      </c>
+      <c r="J87" t="n">
+        <v>8</v>
+      </c>
+      <c r="K87" t="n">
+        <v>14</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -2926,6 +3978,18 @@
       <c r="H88" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I88" t="n">
+        <v>10</v>
+      </c>
+      <c r="J88" t="n">
+        <v>10</v>
+      </c>
+      <c r="K88" t="n">
+        <v>14</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -2954,6 +4018,18 @@
       <c r="H89" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I89" t="n">
+        <v>9</v>
+      </c>
+      <c r="J89" t="n">
+        <v>9</v>
+      </c>
+      <c r="K89" t="n">
+        <v>14</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -2982,6 +4058,18 @@
       <c r="H90" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>8</v>
+      </c>
+      <c r="J90" t="n">
+        <v>8</v>
+      </c>
+      <c r="K90" t="n">
+        <v>14</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -3010,6 +4098,18 @@
       <c r="H91" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I91" t="n">
+        <v>15</v>
+      </c>
+      <c r="J91" t="n">
+        <v>14</v>
+      </c>
+      <c r="K91" t="n">
+        <v>14</v>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -3038,6 +4138,18 @@
       <c r="H92" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I92" t="n">
+        <v>12</v>
+      </c>
+      <c r="J92" t="n">
+        <v>12</v>
+      </c>
+      <c r="K92" t="n">
+        <v>14</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -3066,6 +4178,18 @@
       <c r="H93" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>14</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -3094,6 +4218,18 @@
       <c r="H94" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I94" t="n">
+        <v>14</v>
+      </c>
+      <c r="J94" t="n">
+        <v>14</v>
+      </c>
+      <c r="K94" t="n">
+        <v>14</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -3122,6 +4258,18 @@
       <c r="H95" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I95" t="n">
+        <v>10</v>
+      </c>
+      <c r="J95" t="n">
+        <v>10</v>
+      </c>
+      <c r="K95" t="n">
+        <v>14</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -3150,6 +4298,18 @@
       <c r="H96" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>9</v>
+      </c>
+      <c r="J96" t="n">
+        <v>9</v>
+      </c>
+      <c r="K96" t="n">
+        <v>14</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -3178,6 +4338,18 @@
       <c r="H97" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I97" t="n">
+        <v>8</v>
+      </c>
+      <c r="J97" t="n">
+        <v>8</v>
+      </c>
+      <c r="K97" t="n">
+        <v>14</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -3206,6 +4378,18 @@
       <c r="H98" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I98" t="n">
+        <v>12</v>
+      </c>
+      <c r="J98" t="n">
+        <v>12</v>
+      </c>
+      <c r="K98" t="n">
+        <v>14</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -3234,6 +4418,18 @@
       <c r="H99" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I99" t="n">
+        <v>12</v>
+      </c>
+      <c r="J99" t="n">
+        <v>12</v>
+      </c>
+      <c r="K99" t="n">
+        <v>14</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -3262,6 +4458,18 @@
       <c r="H100" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>7</v>
+      </c>
+      <c r="J100" t="n">
+        <v>7</v>
+      </c>
+      <c r="K100" t="n">
+        <v>14</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -3290,6 +4498,18 @@
       <c r="H101" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I101" t="n">
+        <v>15</v>
+      </c>
+      <c r="J101" t="n">
+        <v>14</v>
+      </c>
+      <c r="K101" t="n">
+        <v>14</v>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -3318,6 +4538,18 @@
       <c r="H102" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I102" t="n">
+        <v>13</v>
+      </c>
+      <c r="J102" t="n">
+        <v>10</v>
+      </c>
+      <c r="K102" t="n">
+        <v>14</v>
+      </c>
+      <c r="L102" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -3346,6 +4578,18 @@
       <c r="H103" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I103" t="n">
+        <v>14</v>
+      </c>
+      <c r="J103" t="n">
+        <v>14</v>
+      </c>
+      <c r="K103" t="n">
+        <v>14</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -3374,6 +4618,18 @@
       <c r="H104" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I104" t="n">
+        <v>14</v>
+      </c>
+      <c r="J104" t="n">
+        <v>14</v>
+      </c>
+      <c r="K104" t="n">
+        <v>14</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -3402,6 +4658,18 @@
       <c r="H105" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I105" t="n">
+        <v>13</v>
+      </c>
+      <c r="J105" t="n">
+        <v>13</v>
+      </c>
+      <c r="K105" t="n">
+        <v>14</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -3430,6 +4698,18 @@
       <c r="H106" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I106" t="n">
+        <v>14</v>
+      </c>
+      <c r="J106" t="n">
+        <v>14</v>
+      </c>
+      <c r="K106" t="n">
+        <v>14</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -3458,6 +4738,18 @@
       <c r="H107" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I107" t="n">
+        <v>14</v>
+      </c>
+      <c r="J107" t="n">
+        <v>14</v>
+      </c>
+      <c r="K107" t="n">
+        <v>14</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -3486,6 +4778,18 @@
       <c r="H108" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="I108" t="n">
+        <v>8</v>
+      </c>
+      <c r="J108" t="n">
+        <v>8</v>
+      </c>
+      <c r="K108" t="n">
+        <v>14</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -3514,6 +4818,18 @@
       <c r="H109" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I109" t="n">
+        <v>14</v>
+      </c>
+      <c r="J109" t="n">
+        <v>14</v>
+      </c>
+      <c r="K109" t="n">
+        <v>14</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -3542,6 +4858,18 @@
       <c r="H110" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I110" t="n">
+        <v>12</v>
+      </c>
+      <c r="J110" t="n">
+        <v>12</v>
+      </c>
+      <c r="K110" t="n">
+        <v>14</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -3570,6 +4898,18 @@
       <c r="H111" s="4" t="n">
         <v>1</v>
       </c>
+      <c r="I111" t="n">
+        <v>9</v>
+      </c>
+      <c r="J111" t="n">
+        <v>9</v>
+      </c>
+      <c r="K111" t="n">
+        <v>14</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -3598,6 +4938,18 @@
       <c r="H112" s="4" t="n">
         <v>1</v>
       </c>
+      <c r="I112" t="n">
+        <v>8</v>
+      </c>
+      <c r="J112" t="n">
+        <v>8</v>
+      </c>
+      <c r="K112" t="n">
+        <v>14</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -3626,6 +4978,18 @@
       <c r="H113" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I113" t="n">
+        <v>14</v>
+      </c>
+      <c r="J113" t="n">
+        <v>14</v>
+      </c>
+      <c r="K113" t="n">
+        <v>14</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -3654,6 +5018,18 @@
       <c r="H114" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="I114" t="n">
+        <v>15</v>
+      </c>
+      <c r="J114" t="n">
+        <v>12</v>
+      </c>
+      <c r="K114" t="n">
+        <v>14</v>
+      </c>
+      <c r="L114" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -3682,6 +5058,18 @@
       <c r="H115" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I115" t="n">
+        <v>13</v>
+      </c>
+      <c r="J115" t="n">
+        <v>13</v>
+      </c>
+      <c r="K115" t="n">
+        <v>14</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -3710,6 +5098,18 @@
       <c r="H116" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I116" t="n">
+        <v>14</v>
+      </c>
+      <c r="J116" t="n">
+        <v>14</v>
+      </c>
+      <c r="K116" t="n">
+        <v>14</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -3738,6 +5138,18 @@
       <c r="H117" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="I117" t="n">
+        <v>12</v>
+      </c>
+      <c r="J117" t="n">
+        <v>10</v>
+      </c>
+      <c r="K117" t="n">
+        <v>14</v>
+      </c>
+      <c r="L117" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -3766,6 +5178,18 @@
       <c r="H118" s="4" t="n">
         <v>1</v>
       </c>
+      <c r="I118" t="n">
+        <v>12</v>
+      </c>
+      <c r="J118" t="n">
+        <v>12</v>
+      </c>
+      <c r="K118" t="n">
+        <v>14</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -3794,6 +5218,18 @@
       <c r="H119" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I119" t="n">
+        <v>14</v>
+      </c>
+      <c r="J119" t="n">
+        <v>14</v>
+      </c>
+      <c r="K119" t="n">
+        <v>14</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -3822,6 +5258,18 @@
       <c r="H120" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I120" t="n">
+        <v>12</v>
+      </c>
+      <c r="J120" t="n">
+        <v>12</v>
+      </c>
+      <c r="K120" t="n">
+        <v>14</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -3850,6 +5298,18 @@
       <c r="H121" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="I121" t="n">
+        <v>6</v>
+      </c>
+      <c r="J121" t="n">
+        <v>5</v>
+      </c>
+      <c r="K121" t="n">
+        <v>14</v>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -3878,6 +5338,18 @@
       <c r="H122" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I122" t="n">
+        <v>13</v>
+      </c>
+      <c r="J122" t="n">
+        <v>12</v>
+      </c>
+      <c r="K122" t="n">
+        <v>14</v>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -3906,6 +5378,18 @@
       <c r="H123" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I123" t="n">
+        <v>14</v>
+      </c>
+      <c r="J123" t="n">
+        <v>13</v>
+      </c>
+      <c r="K123" t="n">
+        <v>14</v>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -3934,6 +5418,18 @@
       <c r="H124" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I124" t="n">
+        <v>10</v>
+      </c>
+      <c r="J124" t="n">
+        <v>10</v>
+      </c>
+      <c r="K124" t="n">
+        <v>14</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -3962,6 +5458,18 @@
       <c r="H125" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I125" t="n">
+        <v>12</v>
+      </c>
+      <c r="J125" t="n">
+        <v>12</v>
+      </c>
+      <c r="K125" t="n">
+        <v>14</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -3990,6 +5498,18 @@
       <c r="H126" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I126" t="n">
+        <v>12</v>
+      </c>
+      <c r="J126" t="n">
+        <v>12</v>
+      </c>
+      <c r="K126" t="n">
+        <v>14</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -4018,6 +5538,18 @@
       <c r="H127" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I127" t="n">
+        <v>14</v>
+      </c>
+      <c r="J127" t="n">
+        <v>14</v>
+      </c>
+      <c r="K127" t="n">
+        <v>14</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -4046,6 +5578,18 @@
       <c r="H128" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="I128" t="n">
+        <v>6</v>
+      </c>
+      <c r="J128" t="n">
+        <v>6</v>
+      </c>
+      <c r="K128" t="n">
+        <v>14</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -4074,6 +5618,18 @@
       <c r="H129" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I129" t="n">
+        <v>14</v>
+      </c>
+      <c r="J129" t="n">
+        <v>14</v>
+      </c>
+      <c r="K129" t="n">
+        <v>14</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -4102,6 +5658,18 @@
       <c r="H130" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I130" t="n">
+        <v>16</v>
+      </c>
+      <c r="J130" t="n">
+        <v>14</v>
+      </c>
+      <c r="K130" t="n">
+        <v>14</v>
+      </c>
+      <c r="L130" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -4130,6 +5698,18 @@
       <c r="H131" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I131" t="n">
+        <v>14</v>
+      </c>
+      <c r="J131" t="n">
+        <v>14</v>
+      </c>
+      <c r="K131" t="n">
+        <v>14</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -4158,6 +5738,18 @@
       <c r="H132" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="I132" t="n">
+        <v>8</v>
+      </c>
+      <c r="J132" t="n">
+        <v>8</v>
+      </c>
+      <c r="K132" t="n">
+        <v>14</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -4186,6 +5778,18 @@
       <c r="H133" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="I133" t="n">
+        <v>13</v>
+      </c>
+      <c r="J133" t="n">
+        <v>12</v>
+      </c>
+      <c r="K133" t="n">
+        <v>14</v>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -4214,6 +5818,18 @@
       <c r="H134" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I134" t="n">
+        <v>14</v>
+      </c>
+      <c r="J134" t="n">
+        <v>14</v>
+      </c>
+      <c r="K134" t="n">
+        <v>14</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -4242,6 +5858,18 @@
       <c r="H135" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I135" t="n">
+        <v>14</v>
+      </c>
+      <c r="J135" t="n">
+        <v>13</v>
+      </c>
+      <c r="K135" t="n">
+        <v>14</v>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -4270,6 +5898,18 @@
       <c r="H136" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I136" t="n">
+        <v>14</v>
+      </c>
+      <c r="J136" t="n">
+        <v>14</v>
+      </c>
+      <c r="K136" t="n">
+        <v>14</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -4298,6 +5938,18 @@
       <c r="H137" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I137" t="n">
+        <v>14</v>
+      </c>
+      <c r="J137" t="n">
+        <v>14</v>
+      </c>
+      <c r="K137" t="n">
+        <v>14</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -4326,6 +5978,18 @@
       <c r="H138" s="4" t="n">
         <v>1</v>
       </c>
+      <c r="I138" t="n">
+        <v>8</v>
+      </c>
+      <c r="J138" t="n">
+        <v>8</v>
+      </c>
+      <c r="K138" t="n">
+        <v>14</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -4354,6 +6018,18 @@
       <c r="H139" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I139" t="n">
+        <v>10</v>
+      </c>
+      <c r="J139" t="n">
+        <v>10</v>
+      </c>
+      <c r="K139" t="n">
+        <v>14</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -4382,6 +6058,18 @@
       <c r="H140" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I140" t="n">
+        <v>13</v>
+      </c>
+      <c r="J140" t="n">
+        <v>13</v>
+      </c>
+      <c r="K140" t="n">
+        <v>14</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -4410,6 +6098,18 @@
       <c r="H141" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I141" t="n">
+        <v>12</v>
+      </c>
+      <c r="J141" t="n">
+        <v>11</v>
+      </c>
+      <c r="K141" t="n">
+        <v>14</v>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -4438,6 +6138,18 @@
       <c r="H142" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="I142" t="n">
+        <v>10</v>
+      </c>
+      <c r="J142" t="n">
+        <v>9</v>
+      </c>
+      <c r="K142" t="n">
+        <v>14</v>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -4466,6 +6178,18 @@
       <c r="H143" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I143" t="n">
+        <v>13</v>
+      </c>
+      <c r="J143" t="n">
+        <v>12</v>
+      </c>
+      <c r="K143" t="n">
+        <v>14</v>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -4494,6 +6218,18 @@
       <c r="H144" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I144" t="n">
+        <v>14</v>
+      </c>
+      <c r="J144" t="n">
+        <v>14</v>
+      </c>
+      <c r="K144" t="n">
+        <v>14</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -4522,6 +6258,18 @@
       <c r="H145" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I145" t="n">
+        <v>13</v>
+      </c>
+      <c r="J145" t="n">
+        <v>13</v>
+      </c>
+      <c r="K145" t="n">
+        <v>14</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -4550,6 +6298,18 @@
       <c r="H146" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I146" t="n">
+        <v>14</v>
+      </c>
+      <c r="J146" t="n">
+        <v>14</v>
+      </c>
+      <c r="K146" t="n">
+        <v>14</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -4578,6 +6338,18 @@
       <c r="H147" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I147" t="n">
+        <v>14</v>
+      </c>
+      <c r="J147" t="n">
+        <v>14</v>
+      </c>
+      <c r="K147" t="n">
+        <v>14</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -4606,6 +6378,18 @@
       <c r="H148" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I148" t="n">
+        <v>15</v>
+      </c>
+      <c r="J148" t="n">
+        <v>14</v>
+      </c>
+      <c r="K148" t="n">
+        <v>14</v>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -4634,6 +6418,18 @@
       <c r="H149" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I149" t="n">
+        <v>13</v>
+      </c>
+      <c r="J149" t="n">
+        <v>12</v>
+      </c>
+      <c r="K149" t="n">
+        <v>14</v>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -4662,6 +6458,18 @@
       <c r="H150" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I150" t="n">
+        <v>15</v>
+      </c>
+      <c r="J150" t="n">
+        <v>14</v>
+      </c>
+      <c r="K150" t="n">
+        <v>14</v>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -4690,6 +6498,18 @@
       <c r="H151" s="4" t="n">
         <v>1</v>
       </c>
+      <c r="I151" t="n">
+        <v>8</v>
+      </c>
+      <c r="J151" t="n">
+        <v>8</v>
+      </c>
+      <c r="K151" t="n">
+        <v>14</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -4717,6 +6537,18 @@
       </c>
       <c r="H152" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I152" t="n">
+        <v>17</v>
+      </c>
+      <c r="J152" t="n">
+        <v>14</v>
+      </c>
+      <c r="K152" t="n">
+        <v>14</v>
+      </c>
+      <c r="L152" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/output_excel.xlsx
+++ b/output_excel.xlsx
@@ -38,20 +38,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C6EFCE"/>
-        <bgColor rgb="00C6EFCE"/>
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0000FF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFC7CE"/>
-        <bgColor rgb="00FFC7CE"/>
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFEB84"/>
-        <bgColor rgb="00FFEB84"/>
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -532,7 +532,7 @@
       <c r="F2" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="2" t="n">
@@ -643,7 +643,7 @@
       <c r="C5" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="n">
@@ -655,7 +655,7 @@
       <c r="G5" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H5" s="4" t="n">
+      <c r="H5" s="3" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
@@ -677,7 +677,7 @@
           <t>2201CB25 Harshita Singh</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="n">
@@ -732,23 +732,23 @@
       <c r="F7" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G7" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" s="3" t="n">
+      <c r="G7" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>13</v>
       </c>
       <c r="J7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K7" t="n">
         <v>14</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -766,7 +766,7 @@
       <c r="D8" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="2" t="n">
@@ -775,7 +775,7 @@
       <c r="G8" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H8" s="3" t="n">
+      <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
@@ -812,7 +812,7 @@
       <c r="F9" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" s="2" t="n">
@@ -923,19 +923,19 @@
       <c r="C12" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4" t="n">
+      <c r="D12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="n">
         <v>1</v>
       </c>
       <c r="I12" t="n">
@@ -1000,10 +1000,10 @@
       <c r="B14" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4" t="n">
+      <c r="C14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E14" s="2" t="n">
@@ -1043,10 +1043,10 @@
       <c r="C15" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3" t="n">
+      <c r="D15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="2" t="n">
@@ -1055,7 +1055,7 @@
       <c r="G15" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H15" s="4" t="n">
+      <c r="H15" s="3" t="n">
         <v>1</v>
       </c>
       <c r="I15" t="n">
@@ -1086,16 +1086,16 @@
       <c r="D16" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E16" s="4" t="n">
+      <c r="E16" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3" t="n">
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
@@ -1157,25 +1157,25 @@
           <t>2201CB68 Vandana</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3" t="n">
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
@@ -1203,19 +1203,19 @@
       <c r="C19" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3" t="n">
+      <c r="D19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
@@ -1237,10 +1237,10 @@
           <t>2201CE03 Abhishek Raj</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3" t="n">
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" s="2" t="n">
@@ -1283,10 +1283,10 @@
       <c r="C21" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D21" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E21" s="3" t="n">
+      <c r="D21" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" s="2" t="n">
@@ -1302,13 +1302,13 @@
         <v>13</v>
       </c>
       <c r="J21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K21" t="n">
         <v>14</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1357,38 +1357,38 @@
           <t>2201CE23 Imteyaj Ahmad</t>
         </is>
       </c>
-      <c r="B23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>2</v>
+      <c r="B23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>3</v>
       </c>
       <c r="D23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="4" t="n">
+      <c r="E23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3" t="n">
         <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>10</v>
       </c>
       <c r="J23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K23" t="n">
         <v>14</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1415,20 +1415,20 @@
       <c r="G24" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H24" s="2" t="n">
-        <v>2</v>
+      <c r="H24" s="4" t="n">
+        <v>5</v>
       </c>
       <c r="I24" t="n">
         <v>17</v>
       </c>
       <c r="J24" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K24" t="n">
         <v>14</v>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1446,13 +1446,13 @@
       <c r="D25" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E25" s="3" t="n">
+      <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G25" s="4" t="n">
+      <c r="G25" s="3" t="n">
         <v>1</v>
       </c>
       <c r="H25" s="2" t="n">
@@ -1489,13 +1489,13 @@
       <c r="E26" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3" t="n">
+      <c r="F26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
@@ -1572,10 +1572,10 @@
       <c r="F28" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="3" t="n">
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
@@ -1597,7 +1597,7 @@
           <t>2201CE32 Md Zeeshan Hassan</t>
         </is>
       </c>
-      <c r="B29" s="4" t="n">
+      <c r="B29" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C29" s="2" t="n">
@@ -1640,8 +1640,8 @@
       <c r="B30" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C30" s="2" t="n">
-        <v>2</v>
+      <c r="C30" s="4" t="n">
+        <v>4</v>
       </c>
       <c r="D30" s="2" t="n">
         <v>2</v>
@@ -1662,13 +1662,13 @@
         <v>16</v>
       </c>
       <c r="J30" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K30" t="n">
         <v>14</v>
       </c>
       <c r="L30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1680,10 +1680,10 @@
       <c r="B31" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" s="4" t="n">
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E31" s="2" t="n">
@@ -1852,7 +1852,7 @@
       <c r="F35" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G35" s="4" t="n">
+      <c r="G35" s="3" t="n">
         <v>1</v>
       </c>
       <c r="H35" s="2" t="n">
@@ -1966,7 +1966,7 @@
       <c r="D38" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E38" s="3" t="n">
+      <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" s="2" t="n">
@@ -2003,10 +2003,10 @@
       <c r="C39" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D39" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E39" s="3" t="n">
+      <c r="D39" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" s="2" t="n">
@@ -2022,13 +2022,13 @@
         <v>13</v>
       </c>
       <c r="J39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K39" t="n">
         <v>14</v>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2043,19 +2043,19 @@
       <c r="C40" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D40" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" s="3" t="n">
+      <c r="D40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G40" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="3" t="n">
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
@@ -2095,7 +2095,7 @@
       <c r="G41" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H41" s="3" t="n">
+      <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
@@ -2126,7 +2126,7 @@
       <c r="D42" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E42" s="3" t="n">
+      <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" s="2" t="n">
@@ -2157,25 +2157,25 @@
           <t>2201EE09 Ambekesh Sharma</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C43" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D43" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" s="4" t="n">
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F43" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G43" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3" t="n">
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
@@ -2292,7 +2292,7 @@
       <c r="F46" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G46" s="3" t="n">
+      <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" s="2" t="n">
@@ -2332,7 +2332,7 @@
       <c r="F47" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G47" s="3" t="n">
+      <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" s="2" t="n">
@@ -2357,25 +2357,25 @@
           <t>2201EE34 Kavya Shrivas</t>
         </is>
       </c>
-      <c r="B48" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C48" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" s="4" t="n">
+      <c r="B48" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F48" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G48" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3" t="n">
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
@@ -2397,25 +2397,25 @@
           <t>2201EE36 Laxmi Kumari</t>
         </is>
       </c>
-      <c r="B49" s="4" t="n">
+      <c r="B49" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D49" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3" t="n">
+      <c r="D49" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
@@ -2437,25 +2437,25 @@
           <t>2201EE38 Mihir Bairathi</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C50" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" s="3" t="n">
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
@@ -2492,7 +2492,7 @@
       <c r="F51" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G51" s="3" t="n">
+      <c r="G51" t="n">
         <v>0</v>
       </c>
       <c r="H51" s="2" t="n">
@@ -2569,10 +2569,10 @@
       <c r="E53" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F53" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G53" s="3" t="n">
+      <c r="F53" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" t="n">
         <v>0</v>
       </c>
       <c r="H53" s="2" t="n">
@@ -2609,7 +2609,7 @@
       <c r="E54" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F54" s="3" t="n">
+      <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" s="2" t="n">
@@ -2640,22 +2640,22 @@
       <c r="B55" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C55" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E55" s="3" t="n">
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G55" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H55" s="3" t="n">
+      <c r="G55" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
@@ -2692,7 +2692,7 @@
       <c r="F56" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G56" s="3" t="n">
+      <c r="G56" t="n">
         <v>0</v>
       </c>
       <c r="H56" s="2" t="n">
@@ -2717,7 +2717,7 @@
           <t>2201EE70 Sujal Pachori</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" t="n">
         <v>0</v>
       </c>
       <c r="C57" s="2" t="n">
@@ -2772,10 +2772,10 @@
       <c r="F58" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G58" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H58" s="3" t="n">
+      <c r="G58" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
@@ -2803,7 +2803,7 @@
       <c r="C59" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D59" s="3" t="n">
+      <c r="D59" t="n">
         <v>0</v>
       </c>
       <c r="E59" s="2" t="n">
@@ -2837,7 +2837,7 @@
           <t>2201EE82 Shreya Reddy B R</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" t="n">
         <v>0</v>
       </c>
       <c r="C60" s="2" t="n">
@@ -2852,7 +2852,7 @@
       <c r="F60" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G60" s="3" t="n">
+      <c r="G60" t="n">
         <v>0</v>
       </c>
       <c r="H60" s="2" t="n">
@@ -2926,16 +2926,16 @@
       <c r="D62" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E62" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F62" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G62" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H62" s="4" t="n">
+      <c r="E62" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F62" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" s="3" t="n">
         <v>1</v>
       </c>
       <c r="I62" t="n">
@@ -2960,10 +2960,10 @@
       <c r="B63" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C63" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" s="4" t="n">
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E63" s="2" t="n">
@@ -3006,8 +3006,8 @@
       <c r="D64" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E64" s="2" t="n">
-        <v>2</v>
+      <c r="E64" s="4" t="n">
+        <v>3</v>
       </c>
       <c r="F64" s="2" t="n">
         <v>2</v>
@@ -3022,13 +3022,13 @@
         <v>15</v>
       </c>
       <c r="J64" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K64" t="n">
         <v>14</v>
       </c>
       <c r="L64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3037,7 +3037,7 @@
           <t>2201EE98 Vihaan Agrawal</t>
         </is>
       </c>
-      <c r="B65" s="4" t="n">
+      <c r="B65" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C65" s="2" t="n">
@@ -3046,16 +3046,16 @@
       <c r="D65" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E65" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F65" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G65" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H65" s="3" t="n">
+      <c r="E65" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
@@ -3080,7 +3080,7 @@
       <c r="B66" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C66" s="3" t="n">
+      <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" s="2" t="n">
@@ -3126,16 +3126,16 @@
       <c r="D67" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E67" s="3" t="n">
+      <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G67" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H67" s="3" t="n">
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
@@ -3163,13 +3163,13 @@
       <c r="C68" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D68" s="4" t="n">
+      <c r="D68" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E68" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F68" s="4" t="n">
+      <c r="F68" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G68" s="2" t="n">
@@ -3215,7 +3215,7 @@
       <c r="G69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H69" s="4" t="n">
+      <c r="H69" s="3" t="n">
         <v>1</v>
       </c>
       <c r="I69" t="n">
@@ -3240,13 +3240,13 @@
       <c r="B70" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C70" s="3" t="n">
+      <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E70" s="3" t="n">
+      <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" s="2" t="n">
@@ -3255,7 +3255,7 @@
       <c r="G70" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H70" s="3" t="n">
+      <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
@@ -3317,7 +3317,7 @@
           <t>2201MC08 Ashutosh Prasad</t>
         </is>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" t="n">
         <v>0</v>
       </c>
       <c r="C72" s="2" t="n">
@@ -3375,7 +3375,7 @@
       <c r="G73" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H73" s="4" t="n">
+      <c r="H73" s="3" t="n">
         <v>1</v>
       </c>
       <c r="I73" t="n">
@@ -3406,16 +3406,16 @@
       <c r="D74" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E74" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H74" s="3" t="n">
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
@@ -3440,22 +3440,22 @@
       <c r="B75" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C75" s="3" t="n">
+      <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E75" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F75" s="4" t="n">
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G75" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H75" s="4" t="n">
+      <c r="H75" s="3" t="n">
         <v>1</v>
       </c>
       <c r="I75" t="n">
@@ -3560,7 +3560,7 @@
       <c r="B78" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C78" s="3" t="n">
+      <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" s="2" t="n">
@@ -3575,20 +3575,20 @@
       <c r="G78" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H78" s="2" t="n">
-        <v>2</v>
+      <c r="H78" s="4" t="n">
+        <v>3</v>
       </c>
       <c r="I78" t="n">
         <v>13</v>
       </c>
       <c r="J78" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K78" t="n">
         <v>14</v>
       </c>
       <c r="L78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3615,7 +3615,7 @@
       <c r="G79" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H79" s="3" t="n">
+      <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
@@ -3637,38 +3637,38 @@
           <t>2201MC23 Rahul Lavoori</t>
         </is>
       </c>
-      <c r="B80" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C80" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D80" s="4" t="n">
+      <c r="B80" t="n">
+        <v>0</v>
+      </c>
+      <c r="C80" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E80" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F80" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G80" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H80" s="2" t="n">
-        <v>2</v>
+      <c r="F80" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G80" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H80" s="4" t="n">
+        <v>4</v>
       </c>
       <c r="I80" t="n">
         <v>14</v>
       </c>
       <c r="J80" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K80" t="n">
         <v>14</v>
       </c>
       <c r="L80" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3677,7 +3677,7 @@
           <t>2201MC28 Ravi Pratap</t>
         </is>
       </c>
-      <c r="B81" s="4" t="n">
+      <c r="B81" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C81" s="2" t="n">
@@ -3695,20 +3695,20 @@
       <c r="G81" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H81" s="2" t="n">
-        <v>2</v>
+      <c r="H81" s="4" t="n">
+        <v>3</v>
       </c>
       <c r="I81" t="n">
         <v>14</v>
       </c>
       <c r="J81" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K81" t="n">
         <v>14</v>
       </c>
       <c r="L81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3732,10 +3732,10 @@
       <c r="F82" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G82" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H82" s="3" t="n">
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
@@ -3772,10 +3772,10 @@
       <c r="F83" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G83" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3" t="n">
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
@@ -3812,10 +3812,10 @@
       <c r="F84" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G84" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H84" s="3" t="n">
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
@@ -3843,13 +3843,13 @@
       <c r="C85" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D85" s="4" t="n">
+      <c r="D85" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E85" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F85" s="3" t="n">
+      <c r="F85" t="n">
         <v>0</v>
       </c>
       <c r="G85" s="2" t="n">
@@ -3889,10 +3889,10 @@
       <c r="E86" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F86" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G86" s="3" t="n">
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
         <v>0</v>
       </c>
       <c r="H86" s="2" t="n">
@@ -3923,7 +3923,7 @@
       <c r="C87" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D87" s="3" t="n">
+      <c r="D87" t="n">
         <v>0</v>
       </c>
       <c r="E87" s="2" t="n">
@@ -3932,10 +3932,10 @@
       <c r="F87" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G87" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H87" s="3" t="n">
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
@@ -3963,10 +3963,10 @@
       <c r="C88" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D88" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" s="3" t="n">
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
         <v>0</v>
       </c>
       <c r="F88" s="2" t="n">
@@ -4000,19 +4000,19 @@
       <c r="B89" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C89" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D89" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E89" s="3" t="n">
+      <c r="C89" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D89" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" t="n">
         <v>0</v>
       </c>
       <c r="F89" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G89" s="4" t="n">
+      <c r="G89" s="3" t="n">
         <v>1</v>
       </c>
       <c r="H89" s="2" t="n">
@@ -4040,22 +4040,22 @@
       <c r="B90" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C90" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D90" s="4" t="n">
+      <c r="C90" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E90" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F90" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G90" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H90" s="3" t="n">
+      <c r="F90" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G90" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
@@ -4077,8 +4077,8 @@
           <t>2201MC47 Rachit</t>
         </is>
       </c>
-      <c r="B91" s="2" t="n">
-        <v>2</v>
+      <c r="B91" s="4" t="n">
+        <v>3</v>
       </c>
       <c r="C91" s="2" t="n">
         <v>2</v>
@@ -4102,13 +4102,13 @@
         <v>15</v>
       </c>
       <c r="J91" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K91" t="n">
         <v>14</v>
       </c>
       <c r="L91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -4120,10 +4120,10 @@
       <c r="B92" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C92" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D92" s="4" t="n">
+      <c r="C92" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E92" s="2" t="n">
@@ -4157,25 +4157,25 @@
           <t>2201MC49 Kartikey Tiwari</t>
         </is>
       </c>
-      <c r="B93" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C93" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D93" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E93" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F93" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G93" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H93" s="3" t="n">
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
@@ -4243,13 +4243,13 @@
       <c r="C95" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D95" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E95" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F95" s="4" t="n">
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F95" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G95" s="2" t="n">
@@ -4283,10 +4283,10 @@
       <c r="C96" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D96" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E96" s="3" t="n">
+      <c r="D96" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E96" t="n">
         <v>0</v>
       </c>
       <c r="F96" s="2" t="n">
@@ -4295,7 +4295,7 @@
       <c r="G96" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H96" s="3" t="n">
+      <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
@@ -4317,16 +4317,16 @@
           <t>2201MC57 Pasupula Harshini</t>
         </is>
       </c>
-      <c r="B97" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C97" s="3" t="n">
+      <c r="B97" t="n">
+        <v>0</v>
+      </c>
+      <c r="C97" t="n">
         <v>0</v>
       </c>
       <c r="D97" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E97" s="3" t="n">
+      <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" s="2" t="n">
@@ -4366,7 +4366,7 @@
       <c r="D98" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E98" s="3" t="n">
+      <c r="E98" t="n">
         <v>0</v>
       </c>
       <c r="F98" s="2" t="n">
@@ -4406,7 +4406,7 @@
       <c r="D99" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E99" s="3" t="n">
+      <c r="E99" t="n">
         <v>0</v>
       </c>
       <c r="F99" s="2" t="n">
@@ -4440,13 +4440,13 @@
       <c r="B100" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C100" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D100" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E100" s="3" t="n">
+      <c r="C100" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E100" t="n">
         <v>0</v>
       </c>
       <c r="F100" s="2" t="n">
@@ -4455,7 +4455,7 @@
       <c r="G100" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H100" s="3" t="n">
+      <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
@@ -4483,8 +4483,8 @@
       <c r="C101" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D101" s="2" t="n">
-        <v>2</v>
+      <c r="D101" s="4" t="n">
+        <v>3</v>
       </c>
       <c r="E101" s="2" t="n">
         <v>2</v>
@@ -4502,13 +4502,13 @@
         <v>15</v>
       </c>
       <c r="J101" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K101" t="n">
         <v>14</v>
       </c>
       <c r="L101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -4517,7 +4517,7 @@
           <t>2201ME11 Anirudh Singh</t>
         </is>
       </c>
-      <c r="B102" s="3" t="n">
+      <c r="B102" t="n">
         <v>0</v>
       </c>
       <c r="C102" s="2" t="n">
@@ -4526,13 +4526,13 @@
       <c r="D102" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E102" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F102" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G102" s="3" t="n">
+      <c r="E102" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F102" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G102" t="n">
         <v>0</v>
       </c>
       <c r="H102" s="2" t="n">
@@ -4542,13 +4542,13 @@
         <v>13</v>
       </c>
       <c r="J102" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K102" t="n">
         <v>14</v>
       </c>
       <c r="L102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -4646,7 +4646,7 @@
       <c r="D105" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E105" s="4" t="n">
+      <c r="E105" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F105" s="2" t="n">
@@ -4763,19 +4763,19 @@
       <c r="C108" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D108" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E108" s="3" t="n">
+      <c r="D108" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E108" t="n">
         <v>0</v>
       </c>
       <c r="F108" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G108" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H108" s="3" t="n">
+      <c r="G108" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
@@ -4846,13 +4846,13 @@
       <c r="D110" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E110" s="4" t="n">
+      <c r="E110" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F110" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G110" s="4" t="n">
+      <c r="G110" s="3" t="n">
         <v>1</v>
       </c>
       <c r="H110" s="2" t="n">
@@ -4883,19 +4883,19 @@
       <c r="C111" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D111" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E111" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F111" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G111" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H111" s="4" t="n">
+      <c r="D111" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E111" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F111" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G111" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H111" s="3" t="n">
         <v>1</v>
       </c>
       <c r="I111" t="n">
@@ -4917,25 +4917,25 @@
           <t>2201ME36 Kalpana Kumari</t>
         </is>
       </c>
-      <c r="B112" s="4" t="n">
+      <c r="B112" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C112" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D112" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E112" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F112" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G112" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H112" s="4" t="n">
+      <c r="D112" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E112" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F112" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G112" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H112" s="3" t="n">
         <v>1</v>
       </c>
       <c r="I112" t="n">
@@ -5006,29 +5006,29 @@
       <c r="D114" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E114" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F114" s="2" t="n">
-        <v>2</v>
+      <c r="E114" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F114" s="4" t="n">
+        <v>3</v>
       </c>
       <c r="G114" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H114" s="3" t="n">
+      <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>15</v>
       </c>
       <c r="J114" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K114" t="n">
         <v>14</v>
       </c>
       <c r="L114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -5046,7 +5046,7 @@
       <c r="D115" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E115" s="4" t="n">
+      <c r="E115" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F115" s="2" t="n">
@@ -5126,7 +5126,7 @@
       <c r="D117" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E117" s="3" t="n">
+      <c r="E117" t="n">
         <v>0</v>
       </c>
       <c r="F117" s="2" t="n">
@@ -5135,7 +5135,7 @@
       <c r="G117" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H117" s="3" t="n">
+      <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
@@ -5163,7 +5163,7 @@
       <c r="C118" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D118" s="4" t="n">
+      <c r="D118" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E118" s="2" t="n">
@@ -5175,7 +5175,7 @@
       <c r="G118" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H118" s="4" t="n">
+      <c r="H118" s="3" t="n">
         <v>1</v>
       </c>
       <c r="I118" t="n">
@@ -5249,7 +5249,7 @@
       <c r="E120" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F120" s="3" t="n">
+      <c r="F120" t="n">
         <v>0</v>
       </c>
       <c r="G120" s="2" t="n">
@@ -5277,25 +5277,25 @@
           <t>2201ME62 Shayan Zafar Ansari</t>
         </is>
       </c>
-      <c r="B121" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C121" s="4" t="n">
+      <c r="B121" t="n">
+        <v>0</v>
+      </c>
+      <c r="C121" s="3" t="n">
         <v>1</v>
       </c>
       <c r="D121" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E121" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F121" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G121" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H121" s="3" t="n">
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G121" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
@@ -5323,10 +5323,10 @@
       <c r="C122" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D122" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E122" s="3" t="n">
+      <c r="D122" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E122" t="n">
         <v>0</v>
       </c>
       <c r="F122" s="2" t="n">
@@ -5342,13 +5342,13 @@
         <v>13</v>
       </c>
       <c r="J122" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K122" t="n">
         <v>14</v>
       </c>
       <c r="L122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -5363,14 +5363,14 @@
       <c r="C123" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D123" s="4" t="n">
+      <c r="D123" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E123" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F123" s="2" t="n">
-        <v>2</v>
+      <c r="F123" s="4" t="n">
+        <v>3</v>
       </c>
       <c r="G123" s="2" t="n">
         <v>2</v>
@@ -5382,13 +5382,13 @@
         <v>14</v>
       </c>
       <c r="J123" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K123" t="n">
         <v>14</v>
       </c>
       <c r="L123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -5406,10 +5406,10 @@
       <c r="D124" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E124" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F124" s="3" t="n">
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="n">
         <v>0</v>
       </c>
       <c r="G124" s="2" t="n">
@@ -5452,7 +5452,7 @@
       <c r="F125" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G125" s="3" t="n">
+      <c r="G125" t="n">
         <v>0</v>
       </c>
       <c r="H125" s="2" t="n">
@@ -5492,7 +5492,7 @@
       <c r="F126" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G126" s="3" t="n">
+      <c r="G126" t="n">
         <v>0</v>
       </c>
       <c r="H126" s="2" t="n">
@@ -5557,7 +5557,7 @@
           <t>2201MM09 Chandradeep Roy</t>
         </is>
       </c>
-      <c r="B128" s="3" t="n">
+      <c r="B128" t="n">
         <v>0</v>
       </c>
       <c r="C128" s="2" t="n">
@@ -5569,13 +5569,13 @@
       <c r="E128" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F128" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G128" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H128" s="3" t="n">
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
@@ -5637,8 +5637,8 @@
           <t>2201MM13 Kashiya Rutvikbhai Madhubhai</t>
         </is>
       </c>
-      <c r="B130" s="2" t="n">
-        <v>2</v>
+      <c r="B130" s="4" t="n">
+        <v>4</v>
       </c>
       <c r="C130" s="2" t="n">
         <v>2</v>
@@ -5662,13 +5662,13 @@
         <v>16</v>
       </c>
       <c r="J130" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K130" t="n">
         <v>14</v>
       </c>
       <c r="L130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -5723,7 +5723,7 @@
       <c r="C132" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D132" s="3" t="n">
+      <c r="D132" t="n">
         <v>0</v>
       </c>
       <c r="E132" s="2" t="n">
@@ -5732,10 +5732,10 @@
       <c r="F132" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G132" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H132" s="3" t="n">
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
@@ -5757,8 +5757,8 @@
           <t>2201MM17 Kumar Nalin Singh</t>
         </is>
       </c>
-      <c r="B133" s="2" t="n">
-        <v>2</v>
+      <c r="B133" s="4" t="n">
+        <v>3</v>
       </c>
       <c r="C133" s="2" t="n">
         <v>2</v>
@@ -5775,20 +5775,20 @@
       <c r="G133" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H133" s="3" t="n">
+      <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>13</v>
       </c>
       <c r="J133" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K133" t="n">
         <v>14</v>
       </c>
       <c r="L133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -5843,7 +5843,7 @@
       <c r="C135" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D135" s="4" t="n">
+      <c r="D135" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E135" s="2" t="n">
@@ -5852,8 +5852,8 @@
       <c r="F135" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G135" s="2" t="n">
-        <v>2</v>
+      <c r="G135" s="4" t="n">
+        <v>3</v>
       </c>
       <c r="H135" s="2" t="n">
         <v>2</v>
@@ -5862,13 +5862,13 @@
         <v>14</v>
       </c>
       <c r="J135" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K135" t="n">
         <v>14</v>
       </c>
       <c r="L135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -5957,25 +5957,25 @@
           <t>2201PH01 Adhila Aslam</t>
         </is>
       </c>
-      <c r="B138" s="4" t="n">
+      <c r="B138" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C138" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D138" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E138" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F138" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G138" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H138" s="4" t="n">
+      <c r="D138" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E138" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F138" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G138" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H138" s="3" t="n">
         <v>1</v>
       </c>
       <c r="I138" t="n">
@@ -6003,13 +6003,13 @@
       <c r="C139" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D139" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E139" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F139" s="4" t="n">
+      <c r="D139" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G139" s="2" t="n">
@@ -6043,7 +6043,7 @@
       <c r="C140" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D140" s="4" t="n">
+      <c r="D140" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E140" s="2" t="n">
@@ -6083,32 +6083,32 @@
       <c r="C141" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D141" s="4" t="n">
+      <c r="D141" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E141" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F141" s="3" t="n">
+      <c r="F141" t="n">
         <v>0</v>
       </c>
       <c r="G141" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H141" s="2" t="n">
-        <v>2</v>
+      <c r="H141" s="4" t="n">
+        <v>3</v>
       </c>
       <c r="I141" t="n">
         <v>12</v>
       </c>
       <c r="J141" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K141" t="n">
         <v>14</v>
       </c>
       <c r="L141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -6123,32 +6123,32 @@
       <c r="C142" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D142" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E142" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F142" s="3" t="n">
+      <c r="D142" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E142" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F142" t="n">
         <v>0</v>
       </c>
       <c r="G142" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H142" s="3" t="n">
+      <c r="H142" t="n">
         <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>10</v>
       </c>
       <c r="J142" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K142" t="n">
         <v>14</v>
       </c>
       <c r="L142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -6157,8 +6157,8 @@
           <t>2201PH13 Harsh Joshi</t>
         </is>
       </c>
-      <c r="B143" s="2" t="n">
-        <v>2</v>
+      <c r="B143" s="4" t="n">
+        <v>3</v>
       </c>
       <c r="C143" s="2" t="n">
         <v>2</v>
@@ -6169,7 +6169,7 @@
       <c r="E143" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F143" s="3" t="n">
+      <c r="F143" t="n">
         <v>0</v>
       </c>
       <c r="G143" s="2" t="n">
@@ -6182,13 +6182,13 @@
         <v>13</v>
       </c>
       <c r="J143" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K143" t="n">
         <v>14</v>
       </c>
       <c r="L143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -6240,7 +6240,7 @@
       <c r="B145" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C145" s="4" t="n">
+      <c r="C145" s="3" t="n">
         <v>1</v>
       </c>
       <c r="D145" s="2" t="n">
@@ -6360,8 +6360,8 @@
       <c r="B148" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C148" s="2" t="n">
-        <v>2</v>
+      <c r="C148" s="4" t="n">
+        <v>3</v>
       </c>
       <c r="D148" s="2" t="n">
         <v>2</v>
@@ -6382,13 +6382,13 @@
         <v>15</v>
       </c>
       <c r="J148" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K148" t="n">
         <v>14</v>
       </c>
       <c r="L148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -6400,16 +6400,16 @@
       <c r="B149" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C149" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D149" s="4" t="n">
+      <c r="C149" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D149" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E149" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F149" s="4" t="n">
+      <c r="F149" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G149" s="2" t="n">
@@ -6422,13 +6422,13 @@
         <v>13</v>
       </c>
       <c r="J149" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K149" t="n">
         <v>14</v>
       </c>
       <c r="L149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -6449,8 +6449,8 @@
       <c r="E150" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F150" s="2" t="n">
-        <v>2</v>
+      <c r="F150" s="4" t="n">
+        <v>3</v>
       </c>
       <c r="G150" s="2" t="n">
         <v>2</v>
@@ -6462,13 +6462,13 @@
         <v>15</v>
       </c>
       <c r="J150" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K150" t="n">
         <v>14</v>
       </c>
       <c r="L150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -6477,25 +6477,25 @@
           <t>2201PH34 Dolly Singh</t>
         </is>
       </c>
-      <c r="B151" s="4" t="n">
+      <c r="B151" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C151" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D151" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E151" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F151" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G151" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H151" s="4" t="n">
+      <c r="D151" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E151" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F151" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G151" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H151" s="3" t="n">
         <v>1</v>
       </c>
       <c r="I151" t="n">
@@ -6517,17 +6517,17 @@
           <t>2201PH35 Himanshu Patel</t>
         </is>
       </c>
-      <c r="B152" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C152" s="2" t="n">
-        <v>2</v>
+      <c r="B152" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C152" s="4" t="n">
+        <v>3</v>
       </c>
       <c r="D152" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E152" s="2" t="n">
-        <v>2</v>
+      <c r="E152" s="4" t="n">
+        <v>3</v>
       </c>
       <c r="F152" s="2" t="n">
         <v>2</v>
@@ -6542,13 +6542,13 @@
         <v>17</v>
       </c>
       <c r="J152" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K152" t="n">
         <v>14</v>
       </c>
       <c r="L152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output_excel.xlsx
+++ b/output_excel.xlsx
@@ -44,14 +44,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFC7CE"/>
-        <bgColor rgb="00FFC7CE"/>
+        <fgColor rgb="00FFEB84"/>
+        <bgColor rgb="00FFEB84"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFEB84"/>
-        <bgColor rgb="00FFEB84"/>
+        <fgColor rgb="00FFC7CE"/>
+        <bgColor rgb="00FFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H152"/>
+  <dimension ref="A1:L152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,6 +490,26 @@
           <t>01/10/2024</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Total Attendance Marked</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Sum of Attendance</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Total Attendance Allowed</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Proxy</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -512,11 +532,23 @@
       <c r="F2" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>12</v>
+      </c>
+      <c r="J2" t="n">
+        <v>12</v>
+      </c>
+      <c r="K2" t="n">
+        <v>14</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -546,6 +578,18 @@
       <c r="H3" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I3" t="n">
+        <v>14</v>
+      </c>
+      <c r="J3" t="n">
+        <v>14</v>
+      </c>
+      <c r="K3" t="n">
+        <v>14</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -574,6 +618,18 @@
       <c r="H4" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I4" t="n">
+        <v>14</v>
+      </c>
+      <c r="J4" t="n">
+        <v>14</v>
+      </c>
+      <c r="K4" t="n">
+        <v>14</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -587,7 +643,7 @@
       <c r="C5" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="n">
@@ -599,8 +655,20 @@
       <c r="G5" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>1</v>
+      <c r="H5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>12</v>
+      </c>
+      <c r="J5" t="n">
+        <v>12</v>
+      </c>
+      <c r="K5" t="n">
+        <v>14</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -609,7 +677,7 @@
           <t>2201CB25 Harshita Singh</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="n">
@@ -629,6 +697,18 @@
       </c>
       <c r="H6" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>13</v>
+      </c>
+      <c r="J6" t="n">
+        <v>13</v>
+      </c>
+      <c r="K6" t="n">
+        <v>14</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -652,10 +732,22 @@
       <c r="F7" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G7" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" s="3" t="n">
+      <c r="G7" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>13</v>
+      </c>
+      <c r="J7" t="n">
+        <v>13</v>
+      </c>
+      <c r="K7" t="n">
+        <v>14</v>
+      </c>
+      <c r="L7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -674,7 +766,7 @@
       <c r="D8" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="2" t="n">
@@ -683,8 +775,20 @@
       <c r="G8" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H8" s="3" t="n">
-        <v>0</v>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>12</v>
+      </c>
+      <c r="J8" t="n">
+        <v>10</v>
+      </c>
+      <c r="K8" t="n">
+        <v>14</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -708,11 +812,23 @@
       <c r="F9" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>12</v>
+      </c>
+      <c r="J9" t="n">
+        <v>12</v>
+      </c>
+      <c r="K9" t="n">
+        <v>14</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -742,6 +858,18 @@
       <c r="H10" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I10" t="n">
+        <v>14</v>
+      </c>
+      <c r="J10" t="n">
+        <v>14</v>
+      </c>
+      <c r="K10" t="n">
+        <v>14</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -770,6 +898,18 @@
       <c r="H11" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I11" t="n">
+        <v>14</v>
+      </c>
+      <c r="J11" t="n">
+        <v>14</v>
+      </c>
+      <c r="K11" t="n">
+        <v>14</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -783,20 +923,32 @@
       <c r="C12" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4" t="n">
-        <v>1</v>
+      <c r="D12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>8</v>
+      </c>
+      <c r="J12" t="n">
+        <v>8</v>
+      </c>
+      <c r="K12" t="n">
+        <v>14</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -826,6 +978,18 @@
       <c r="H13" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I13" t="n">
+        <v>14</v>
+      </c>
+      <c r="J13" t="n">
+        <v>14</v>
+      </c>
+      <c r="K13" t="n">
+        <v>14</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -836,10 +1000,10 @@
       <c r="B14" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4" t="n">
+      <c r="C14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E14" s="2" t="n">
@@ -853,6 +1017,18 @@
       </c>
       <c r="H14" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>12</v>
+      </c>
+      <c r="J14" t="n">
+        <v>12</v>
+      </c>
+      <c r="K14" t="n">
+        <v>14</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -867,10 +1043,10 @@
       <c r="C15" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3" t="n">
+      <c r="D15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="2" t="n">
@@ -879,8 +1055,20 @@
       <c r="G15" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H15" s="4" t="n">
-        <v>1</v>
+      <c r="H15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>10</v>
+      </c>
+      <c r="J15" t="n">
+        <v>10</v>
+      </c>
+      <c r="K15" t="n">
+        <v>14</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -898,16 +1086,28 @@
       <c r="D16" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E16" s="4" t="n">
+      <c r="E16" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3" t="n">
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>9</v>
+      </c>
+      <c r="J16" t="n">
+        <v>9</v>
+      </c>
+      <c r="K16" t="n">
+        <v>14</v>
+      </c>
+      <c r="L16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -938,6 +1138,18 @@
       <c r="H17" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I17" t="n">
+        <v>14</v>
+      </c>
+      <c r="J17" t="n">
+        <v>14</v>
+      </c>
+      <c r="K17" t="n">
+        <v>14</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -945,25 +1157,37 @@
           <t>2201CB68 Vandana</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3" t="n">
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>14</v>
+      </c>
+      <c r="L18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -979,19 +1203,31 @@
       <c r="C19" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3" t="n">
+      <c r="D19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>8</v>
+      </c>
+      <c r="J19" t="n">
+        <v>8</v>
+      </c>
+      <c r="K19" t="n">
+        <v>14</v>
+      </c>
+      <c r="L19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1001,10 +1237,10 @@
           <t>2201CE03 Abhishek Raj</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3" t="n">
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" s="2" t="n">
@@ -1021,6 +1257,18 @@
       </c>
       <c r="H20" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>10</v>
+      </c>
+      <c r="J20" t="n">
+        <v>10</v>
+      </c>
+      <c r="K20" t="n">
+        <v>14</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1035,10 +1283,10 @@
       <c r="C21" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D21" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E21" s="3" t="n">
+      <c r="D21" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" s="2" t="n">
@@ -1049,6 +1297,18 @@
       </c>
       <c r="H21" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>13</v>
+      </c>
+      <c r="J21" t="n">
+        <v>13</v>
+      </c>
+      <c r="K21" t="n">
+        <v>14</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1078,6 +1338,18 @@
       <c r="H22" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I22" t="n">
+        <v>14</v>
+      </c>
+      <c r="J22" t="n">
+        <v>14</v>
+      </c>
+      <c r="K22" t="n">
+        <v>14</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1085,26 +1357,38 @@
           <t>2201CE23 Imteyaj Ahmad</t>
         </is>
       </c>
-      <c r="B23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>2</v>
+      <c r="B23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>3</v>
       </c>
       <c r="D23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="4" t="n">
-        <v>1</v>
+      <c r="E23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>10</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" t="n">
+        <v>14</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1131,8 +1415,20 @@
       <c r="G24" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H24" s="2" t="n">
-        <v>2</v>
+      <c r="H24" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I24" t="n">
+        <v>17</v>
+      </c>
+      <c r="J24" t="n">
+        <v>17</v>
+      </c>
+      <c r="K24" t="n">
+        <v>14</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1150,17 +1446,29 @@
       <c r="D25" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E25" s="3" t="n">
+      <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G25" s="4" t="n">
+      <c r="G25" s="3" t="n">
         <v>1</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>11</v>
+      </c>
+      <c r="J25" t="n">
+        <v>11</v>
+      </c>
+      <c r="K25" t="n">
+        <v>14</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1181,14 +1489,26 @@
       <c r="E26" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3" t="n">
-        <v>0</v>
+      <c r="F26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>10</v>
+      </c>
+      <c r="J26" t="n">
+        <v>9</v>
+      </c>
+      <c r="K26" t="n">
+        <v>14</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1218,6 +1538,18 @@
       <c r="H27" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I27" t="n">
+        <v>14</v>
+      </c>
+      <c r="J27" t="n">
+        <v>14</v>
+      </c>
+      <c r="K27" t="n">
+        <v>14</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1240,10 +1572,22 @@
       <c r="F28" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="3" t="n">
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>10</v>
+      </c>
+      <c r="J28" t="n">
+        <v>10</v>
+      </c>
+      <c r="K28" t="n">
+        <v>14</v>
+      </c>
+      <c r="L28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1253,7 +1597,7 @@
           <t>2201CE32 Md Zeeshan Hassan</t>
         </is>
       </c>
-      <c r="B29" s="4" t="n">
+      <c r="B29" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C29" s="2" t="n">
@@ -1273,6 +1617,18 @@
       </c>
       <c r="H29" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I29" t="n">
+        <v>13</v>
+      </c>
+      <c r="J29" t="n">
+        <v>13</v>
+      </c>
+      <c r="K29" t="n">
+        <v>14</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1284,8 +1640,8 @@
       <c r="B30" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C30" s="2" t="n">
-        <v>2</v>
+      <c r="C30" s="4" t="n">
+        <v>4</v>
       </c>
       <c r="D30" s="2" t="n">
         <v>2</v>
@@ -1301,6 +1657,18 @@
       </c>
       <c r="H30" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I30" t="n">
+        <v>16</v>
+      </c>
+      <c r="J30" t="n">
+        <v>16</v>
+      </c>
+      <c r="K30" t="n">
+        <v>14</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1312,10 +1680,10 @@
       <c r="B31" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" s="4" t="n">
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E31" s="2" t="n">
@@ -1329,6 +1697,18 @@
       </c>
       <c r="H31" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I31" t="n">
+        <v>11</v>
+      </c>
+      <c r="J31" t="n">
+        <v>11</v>
+      </c>
+      <c r="K31" t="n">
+        <v>14</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1358,6 +1738,18 @@
       <c r="H32" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I32" t="n">
+        <v>14</v>
+      </c>
+      <c r="J32" t="n">
+        <v>14</v>
+      </c>
+      <c r="K32" t="n">
+        <v>14</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1386,6 +1778,18 @@
       <c r="H33" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I33" t="n">
+        <v>14</v>
+      </c>
+      <c r="J33" t="n">
+        <v>14</v>
+      </c>
+      <c r="K33" t="n">
+        <v>14</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1414,6 +1818,18 @@
       <c r="H34" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I34" t="n">
+        <v>14</v>
+      </c>
+      <c r="J34" t="n">
+        <v>14</v>
+      </c>
+      <c r="K34" t="n">
+        <v>14</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1436,11 +1852,23 @@
       <c r="F35" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G35" s="4" t="n">
+      <c r="G35" s="3" t="n">
         <v>1</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I35" t="n">
+        <v>13</v>
+      </c>
+      <c r="J35" t="n">
+        <v>13</v>
+      </c>
+      <c r="K35" t="n">
+        <v>14</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1470,6 +1898,18 @@
       <c r="H36" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I36" t="n">
+        <v>14</v>
+      </c>
+      <c r="J36" t="n">
+        <v>14</v>
+      </c>
+      <c r="K36" t="n">
+        <v>14</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1498,6 +1938,18 @@
       <c r="H37" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I37" t="n">
+        <v>14</v>
+      </c>
+      <c r="J37" t="n">
+        <v>14</v>
+      </c>
+      <c r="K37" t="n">
+        <v>14</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1514,7 +1966,7 @@
       <c r="D38" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E38" s="3" t="n">
+      <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" s="2" t="n">
@@ -1525,6 +1977,18 @@
       </c>
       <c r="H38" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I38" t="n">
+        <v>12</v>
+      </c>
+      <c r="J38" t="n">
+        <v>12</v>
+      </c>
+      <c r="K38" t="n">
+        <v>14</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1539,10 +2003,10 @@
       <c r="C39" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D39" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E39" s="3" t="n">
+      <c r="D39" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" s="2" t="n">
@@ -1553,6 +2017,18 @@
       </c>
       <c r="H39" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I39" t="n">
+        <v>13</v>
+      </c>
+      <c r="J39" t="n">
+        <v>13</v>
+      </c>
+      <c r="K39" t="n">
+        <v>14</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1567,19 +2043,31 @@
       <c r="C40" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D40" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" s="3" t="n">
+      <c r="D40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G40" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="3" t="n">
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>7</v>
+      </c>
+      <c r="J40" t="n">
+        <v>7</v>
+      </c>
+      <c r="K40" t="n">
+        <v>14</v>
+      </c>
+      <c r="L40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1607,7 +2095,19 @@
       <c r="G41" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H41" s="3" t="n">
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>12</v>
+      </c>
+      <c r="J41" t="n">
+        <v>12</v>
+      </c>
+      <c r="K41" t="n">
+        <v>14</v>
+      </c>
+      <c r="L41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1626,7 +2126,7 @@
       <c r="D42" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E42" s="3" t="n">
+      <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" s="2" t="n">
@@ -1637,6 +2137,18 @@
       </c>
       <c r="H42" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I42" t="n">
+        <v>12</v>
+      </c>
+      <c r="J42" t="n">
+        <v>12</v>
+      </c>
+      <c r="K42" t="n">
+        <v>14</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1645,25 +2157,37 @@
           <t>2201EE09 Ambekesh Sharma</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C43" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D43" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" s="4" t="n">
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F43" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G43" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3" t="n">
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>5</v>
+      </c>
+      <c r="J43" t="n">
+        <v>5</v>
+      </c>
+      <c r="K43" t="n">
+        <v>14</v>
+      </c>
+      <c r="L43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1694,6 +2218,18 @@
       <c r="H44" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I44" t="n">
+        <v>14</v>
+      </c>
+      <c r="J44" t="n">
+        <v>14</v>
+      </c>
+      <c r="K44" t="n">
+        <v>14</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1722,6 +2258,18 @@
       <c r="H45" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I45" t="n">
+        <v>14</v>
+      </c>
+      <c r="J45" t="n">
+        <v>14</v>
+      </c>
+      <c r="K45" t="n">
+        <v>14</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1744,10 +2292,22 @@
       <c r="F46" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G46" s="3" t="n">
+      <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I46" t="n">
+        <v>14</v>
+      </c>
+      <c r="J46" t="n">
+        <v>12</v>
+      </c>
+      <c r="K46" t="n">
+        <v>14</v>
+      </c>
+      <c r="L46" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1772,11 +2332,23 @@
       <c r="F47" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G47" s="3" t="n">
+      <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I47" t="n">
+        <v>12</v>
+      </c>
+      <c r="J47" t="n">
+        <v>12</v>
+      </c>
+      <c r="K47" t="n">
+        <v>14</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1785,25 +2357,37 @@
           <t>2201EE34 Kavya Shrivas</t>
         </is>
       </c>
-      <c r="B48" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C48" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" s="4" t="n">
+      <c r="B48" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F48" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G48" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3" t="n">
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>6</v>
+      </c>
+      <c r="J48" t="n">
+        <v>6</v>
+      </c>
+      <c r="K48" t="n">
+        <v>14</v>
+      </c>
+      <c r="L48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1813,25 +2397,37 @@
           <t>2201EE36 Laxmi Kumari</t>
         </is>
       </c>
-      <c r="B49" s="4" t="n">
+      <c r="B49" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D49" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3" t="n">
+      <c r="D49" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>4</v>
+      </c>
+      <c r="J49" t="n">
+        <v>4</v>
+      </c>
+      <c r="K49" t="n">
+        <v>14</v>
+      </c>
+      <c r="L49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1841,25 +2437,37 @@
           <t>2201EE38 Mihir Bairathi</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C50" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" s="3" t="n">
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>14</v>
+      </c>
+      <c r="L50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1884,11 +2492,23 @@
       <c r="F51" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G51" s="3" t="n">
+      <c r="G51" t="n">
         <v>0</v>
       </c>
       <c r="H51" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I51" t="n">
+        <v>12</v>
+      </c>
+      <c r="J51" t="n">
+        <v>12</v>
+      </c>
+      <c r="K51" t="n">
+        <v>14</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1918,6 +2538,18 @@
       <c r="H52" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I52" t="n">
+        <v>14</v>
+      </c>
+      <c r="J52" t="n">
+        <v>14</v>
+      </c>
+      <c r="K52" t="n">
+        <v>14</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1937,14 +2569,26 @@
       <c r="E53" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F53" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G53" s="3" t="n">
+      <c r="F53" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" t="n">
         <v>0</v>
       </c>
       <c r="H53" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I53" t="n">
+        <v>11</v>
+      </c>
+      <c r="J53" t="n">
+        <v>11</v>
+      </c>
+      <c r="K53" t="n">
+        <v>14</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1965,7 +2609,7 @@
       <c r="E54" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F54" s="3" t="n">
+      <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" s="2" t="n">
@@ -1973,6 +2617,18 @@
       </c>
       <c r="H54" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I54" t="n">
+        <v>12</v>
+      </c>
+      <c r="J54" t="n">
+        <v>12</v>
+      </c>
+      <c r="K54" t="n">
+        <v>14</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1984,23 +2640,35 @@
       <c r="B55" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C55" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E55" s="3" t="n">
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G55" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H55" s="3" t="n">
-        <v>0</v>
+      <c r="G55" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>8</v>
+      </c>
+      <c r="J55" t="n">
+        <v>6</v>
+      </c>
+      <c r="K55" t="n">
+        <v>14</v>
+      </c>
+      <c r="L55" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -2024,11 +2692,23 @@
       <c r="F56" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G56" s="3" t="n">
+      <c r="G56" t="n">
         <v>0</v>
       </c>
       <c r="H56" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I56" t="n">
+        <v>12</v>
+      </c>
+      <c r="J56" t="n">
+        <v>12</v>
+      </c>
+      <c r="K56" t="n">
+        <v>14</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2037,7 +2717,7 @@
           <t>2201EE70 Sujal Pachori</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" t="n">
         <v>0</v>
       </c>
       <c r="C57" s="2" t="n">
@@ -2056,6 +2736,18 @@
         <v>2</v>
       </c>
       <c r="H57" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I57" t="n">
+        <v>14</v>
+      </c>
+      <c r="J57" t="n">
+        <v>12</v>
+      </c>
+      <c r="K57" t="n">
+        <v>14</v>
+      </c>
+      <c r="L57" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2080,10 +2772,22 @@
       <c r="F58" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G58" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H58" s="3" t="n">
+      <c r="G58" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>11</v>
+      </c>
+      <c r="J58" t="n">
+        <v>11</v>
+      </c>
+      <c r="K58" t="n">
+        <v>14</v>
+      </c>
+      <c r="L58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2099,7 +2803,7 @@
       <c r="C59" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D59" s="3" t="n">
+      <c r="D59" t="n">
         <v>0</v>
       </c>
       <c r="E59" s="2" t="n">
@@ -2113,6 +2817,18 @@
       </c>
       <c r="H59" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I59" t="n">
+        <v>12</v>
+      </c>
+      <c r="J59" t="n">
+        <v>12</v>
+      </c>
+      <c r="K59" t="n">
+        <v>14</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2837,7 @@
           <t>2201EE82 Shreya Reddy B R</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" t="n">
         <v>0</v>
       </c>
       <c r="C60" s="2" t="n">
@@ -2136,11 +2852,23 @@
       <c r="F60" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G60" s="3" t="n">
+      <c r="G60" t="n">
         <v>0</v>
       </c>
       <c r="H60" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I60" t="n">
+        <v>10</v>
+      </c>
+      <c r="J60" t="n">
+        <v>10</v>
+      </c>
+      <c r="K60" t="n">
+        <v>14</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2170,6 +2898,18 @@
       <c r="H61" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>14</v>
+      </c>
+      <c r="K61" t="n">
+        <v>14</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -2186,17 +2926,29 @@
       <c r="D62" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E62" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F62" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G62" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H62" s="4" t="n">
-        <v>1</v>
+      <c r="E62" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F62" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>10</v>
+      </c>
+      <c r="J62" t="n">
+        <v>10</v>
+      </c>
+      <c r="K62" t="n">
+        <v>14</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2208,10 +2960,10 @@
       <c r="B63" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C63" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" s="4" t="n">
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E63" s="2" t="n">
@@ -2225,6 +2977,18 @@
       </c>
       <c r="H63" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I63" t="n">
+        <v>11</v>
+      </c>
+      <c r="J63" t="n">
+        <v>11</v>
+      </c>
+      <c r="K63" t="n">
+        <v>14</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2242,8 +3006,8 @@
       <c r="D64" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E64" s="2" t="n">
-        <v>2</v>
+      <c r="E64" s="4" t="n">
+        <v>3</v>
       </c>
       <c r="F64" s="2" t="n">
         <v>2</v>
@@ -2253,6 +3017,18 @@
       </c>
       <c r="H64" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I64" t="n">
+        <v>15</v>
+      </c>
+      <c r="J64" t="n">
+        <v>15</v>
+      </c>
+      <c r="K64" t="n">
+        <v>14</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2261,7 +3037,7 @@
           <t>2201EE98 Vihaan Agrawal</t>
         </is>
       </c>
-      <c r="B65" s="4" t="n">
+      <c r="B65" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C65" s="2" t="n">
@@ -2270,16 +3046,28 @@
       <c r="D65" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E65" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F65" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G65" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H65" s="3" t="n">
+      <c r="E65" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>8</v>
+      </c>
+      <c r="J65" t="n">
+        <v>8</v>
+      </c>
+      <c r="K65" t="n">
+        <v>14</v>
+      </c>
+      <c r="L65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2292,7 +3080,7 @@
       <c r="B66" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C66" s="3" t="n">
+      <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" s="2" t="n">
@@ -2309,6 +3097,18 @@
       </c>
       <c r="H66" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I66" t="n">
+        <v>12</v>
+      </c>
+      <c r="J66" t="n">
+        <v>12</v>
+      </c>
+      <c r="K66" t="n">
+        <v>14</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2326,16 +3126,28 @@
       <c r="D67" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E67" s="3" t="n">
+      <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G67" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H67" s="3" t="n">
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>8</v>
+      </c>
+      <c r="J67" t="n">
+        <v>8</v>
+      </c>
+      <c r="K67" t="n">
+        <v>14</v>
+      </c>
+      <c r="L67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2351,13 +3163,13 @@
       <c r="C68" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D68" s="4" t="n">
+      <c r="D68" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E68" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F68" s="4" t="n">
+      <c r="F68" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G68" s="2" t="n">
@@ -2365,6 +3177,18 @@
       </c>
       <c r="H68" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I68" t="n">
+        <v>13</v>
+      </c>
+      <c r="J68" t="n">
+        <v>12</v>
+      </c>
+      <c r="K68" t="n">
+        <v>14</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2391,8 +3215,20 @@
       <c r="G69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H69" s="4" t="n">
-        <v>1</v>
+      <c r="H69" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>13</v>
+      </c>
+      <c r="J69" t="n">
+        <v>13</v>
+      </c>
+      <c r="K69" t="n">
+        <v>14</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2404,13 +3240,13 @@
       <c r="B70" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C70" s="3" t="n">
+      <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E70" s="3" t="n">
+      <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" s="2" t="n">
@@ -2419,8 +3255,20 @@
       <c r="G70" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H70" s="3" t="n">
-        <v>0</v>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>9</v>
+      </c>
+      <c r="J70" t="n">
+        <v>8</v>
+      </c>
+      <c r="K70" t="n">
+        <v>14</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2450,6 +3298,18 @@
       <c r="H71" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I71" t="n">
+        <v>14</v>
+      </c>
+      <c r="J71" t="n">
+        <v>14</v>
+      </c>
+      <c r="K71" t="n">
+        <v>14</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -2457,7 +3317,7 @@
           <t>2201MC08 Ashutosh Prasad</t>
         </is>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" t="n">
         <v>0</v>
       </c>
       <c r="C72" s="2" t="n">
@@ -2477,6 +3337,18 @@
       </c>
       <c r="H72" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I72" t="n">
+        <v>12</v>
+      </c>
+      <c r="J72" t="n">
+        <v>12</v>
+      </c>
+      <c r="K72" t="n">
+        <v>14</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2503,8 +3375,20 @@
       <c r="G73" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H73" s="4" t="n">
-        <v>1</v>
+      <c r="H73" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>13</v>
+      </c>
+      <c r="J73" t="n">
+        <v>13</v>
+      </c>
+      <c r="K73" t="n">
+        <v>14</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2522,16 +3406,28 @@
       <c r="D74" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E74" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H74" s="3" t="n">
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>7</v>
+      </c>
+      <c r="J74" t="n">
+        <v>7</v>
+      </c>
+      <c r="K74" t="n">
+        <v>14</v>
+      </c>
+      <c r="L74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2544,23 +3440,35 @@
       <c r="B75" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C75" s="3" t="n">
+      <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E75" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F75" s="4" t="n">
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G75" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H75" s="4" t="n">
-        <v>1</v>
+      <c r="H75" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>8</v>
+      </c>
+      <c r="J75" t="n">
+        <v>8</v>
+      </c>
+      <c r="K75" t="n">
+        <v>14</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2590,6 +3498,18 @@
       <c r="H76" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I76" t="n">
+        <v>15</v>
+      </c>
+      <c r="J76" t="n">
+        <v>14</v>
+      </c>
+      <c r="K76" t="n">
+        <v>14</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -2618,6 +3538,18 @@
       <c r="H77" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I77" t="n">
+        <v>14</v>
+      </c>
+      <c r="J77" t="n">
+        <v>14</v>
+      </c>
+      <c r="K77" t="n">
+        <v>14</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -2628,7 +3560,7 @@
       <c r="B78" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C78" s="3" t="n">
+      <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" s="2" t="n">
@@ -2643,8 +3575,20 @@
       <c r="G78" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H78" s="2" t="n">
-        <v>2</v>
+      <c r="H78" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I78" t="n">
+        <v>13</v>
+      </c>
+      <c r="J78" t="n">
+        <v>13</v>
+      </c>
+      <c r="K78" t="n">
+        <v>14</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -2671,7 +3615,19 @@
       <c r="G79" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H79" s="3" t="n">
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>12</v>
+      </c>
+      <c r="J79" t="n">
+        <v>12</v>
+      </c>
+      <c r="K79" t="n">
+        <v>14</v>
+      </c>
+      <c r="L79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2681,26 +3637,38 @@
           <t>2201MC23 Rahul Lavoori</t>
         </is>
       </c>
-      <c r="B80" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C80" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D80" s="4" t="n">
+      <c r="B80" t="n">
+        <v>0</v>
+      </c>
+      <c r="C80" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E80" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F80" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G80" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H80" s="2" t="n">
-        <v>2</v>
+      <c r="F80" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G80" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H80" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I80" t="n">
+        <v>14</v>
+      </c>
+      <c r="J80" t="n">
+        <v>14</v>
+      </c>
+      <c r="K80" t="n">
+        <v>14</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -2709,7 +3677,7 @@
           <t>2201MC28 Ravi Pratap</t>
         </is>
       </c>
-      <c r="B81" s="4" t="n">
+      <c r="B81" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C81" s="2" t="n">
@@ -2727,8 +3695,20 @@
       <c r="G81" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H81" s="2" t="n">
-        <v>2</v>
+      <c r="H81" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I81" t="n">
+        <v>14</v>
+      </c>
+      <c r="J81" t="n">
+        <v>14</v>
+      </c>
+      <c r="K81" t="n">
+        <v>14</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2752,10 +3732,22 @@
       <c r="F82" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G82" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H82" s="3" t="n">
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>10</v>
+      </c>
+      <c r="J82" t="n">
+        <v>10</v>
+      </c>
+      <c r="K82" t="n">
+        <v>14</v>
+      </c>
+      <c r="L82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2780,10 +3772,22 @@
       <c r="F83" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G83" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3" t="n">
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>10</v>
+      </c>
+      <c r="J83" t="n">
+        <v>10</v>
+      </c>
+      <c r="K83" t="n">
+        <v>14</v>
+      </c>
+      <c r="L83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2808,10 +3812,22 @@
       <c r="F84" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G84" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H84" s="3" t="n">
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>10</v>
+      </c>
+      <c r="J84" t="n">
+        <v>10</v>
+      </c>
+      <c r="K84" t="n">
+        <v>14</v>
+      </c>
+      <c r="L84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2827,13 +3843,13 @@
       <c r="C85" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D85" s="4" t="n">
+      <c r="D85" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E85" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F85" s="3" t="n">
+      <c r="F85" t="n">
         <v>0</v>
       </c>
       <c r="G85" s="2" t="n">
@@ -2841,6 +3857,18 @@
       </c>
       <c r="H85" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I85" t="n">
+        <v>11</v>
+      </c>
+      <c r="J85" t="n">
+        <v>11</v>
+      </c>
+      <c r="K85" t="n">
+        <v>14</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2861,13 +3889,25 @@
       <c r="E86" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F86" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G86" s="3" t="n">
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
         <v>0</v>
       </c>
       <c r="H86" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I86" t="n">
+        <v>12</v>
+      </c>
+      <c r="J86" t="n">
+        <v>10</v>
+      </c>
+      <c r="K86" t="n">
+        <v>14</v>
+      </c>
+      <c r="L86" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2883,7 +3923,7 @@
       <c r="C87" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D87" s="3" t="n">
+      <c r="D87" t="n">
         <v>0</v>
       </c>
       <c r="E87" s="2" t="n">
@@ -2892,10 +3932,22 @@
       <c r="F87" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G87" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H87" s="3" t="n">
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>8</v>
+      </c>
+      <c r="J87" t="n">
+        <v>8</v>
+      </c>
+      <c r="K87" t="n">
+        <v>14</v>
+      </c>
+      <c r="L87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2911,10 +3963,10 @@
       <c r="C88" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D88" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" s="3" t="n">
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
         <v>0</v>
       </c>
       <c r="F88" s="2" t="n">
@@ -2925,6 +3977,18 @@
       </c>
       <c r="H88" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I88" t="n">
+        <v>10</v>
+      </c>
+      <c r="J88" t="n">
+        <v>10</v>
+      </c>
+      <c r="K88" t="n">
+        <v>14</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2936,23 +4000,35 @@
       <c r="B89" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C89" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D89" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E89" s="3" t="n">
+      <c r="C89" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D89" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" t="n">
         <v>0</v>
       </c>
       <c r="F89" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G89" s="4" t="n">
+      <c r="G89" s="3" t="n">
         <v>1</v>
       </c>
       <c r="H89" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I89" t="n">
+        <v>9</v>
+      </c>
+      <c r="J89" t="n">
+        <v>9</v>
+      </c>
+      <c r="K89" t="n">
+        <v>14</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2964,22 +4040,34 @@
       <c r="B90" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C90" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D90" s="4" t="n">
+      <c r="C90" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E90" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F90" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G90" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H90" s="3" t="n">
+      <c r="F90" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G90" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>8</v>
+      </c>
+      <c r="J90" t="n">
+        <v>8</v>
+      </c>
+      <c r="K90" t="n">
+        <v>14</v>
+      </c>
+      <c r="L90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2989,8 +4077,8 @@
           <t>2201MC47 Rachit</t>
         </is>
       </c>
-      <c r="B91" s="2" t="n">
-        <v>2</v>
+      <c r="B91" s="4" t="n">
+        <v>3</v>
       </c>
       <c r="C91" s="2" t="n">
         <v>2</v>
@@ -3009,6 +4097,18 @@
       </c>
       <c r="H91" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I91" t="n">
+        <v>15</v>
+      </c>
+      <c r="J91" t="n">
+        <v>15</v>
+      </c>
+      <c r="K91" t="n">
+        <v>14</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3020,10 +4120,10 @@
       <c r="B92" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C92" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D92" s="4" t="n">
+      <c r="C92" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E92" s="2" t="n">
@@ -3037,6 +4137,18 @@
       </c>
       <c r="H92" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I92" t="n">
+        <v>12</v>
+      </c>
+      <c r="J92" t="n">
+        <v>12</v>
+      </c>
+      <c r="K92" t="n">
+        <v>14</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3045,25 +4157,37 @@
           <t>2201MC49 Kartikey Tiwari</t>
         </is>
       </c>
-      <c r="B93" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C93" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D93" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E93" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F93" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G93" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H93" s="3" t="n">
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>14</v>
+      </c>
+      <c r="L93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3094,6 +4218,18 @@
       <c r="H94" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I94" t="n">
+        <v>14</v>
+      </c>
+      <c r="J94" t="n">
+        <v>14</v>
+      </c>
+      <c r="K94" t="n">
+        <v>14</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -3107,13 +4243,13 @@
       <c r="C95" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D95" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E95" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F95" s="4" t="n">
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F95" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G95" s="2" t="n">
@@ -3121,6 +4257,18 @@
       </c>
       <c r="H95" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I95" t="n">
+        <v>10</v>
+      </c>
+      <c r="J95" t="n">
+        <v>10</v>
+      </c>
+      <c r="K95" t="n">
+        <v>14</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3135,10 +4283,10 @@
       <c r="C96" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D96" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E96" s="3" t="n">
+      <c r="D96" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E96" t="n">
         <v>0</v>
       </c>
       <c r="F96" s="2" t="n">
@@ -3147,7 +4295,19 @@
       <c r="G96" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H96" s="3" t="n">
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>9</v>
+      </c>
+      <c r="J96" t="n">
+        <v>9</v>
+      </c>
+      <c r="K96" t="n">
+        <v>14</v>
+      </c>
+      <c r="L96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3157,16 +4317,16 @@
           <t>2201MC57 Pasupula Harshini</t>
         </is>
       </c>
-      <c r="B97" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C97" s="3" t="n">
+      <c r="B97" t="n">
+        <v>0</v>
+      </c>
+      <c r="C97" t="n">
         <v>0</v>
       </c>
       <c r="D97" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E97" s="3" t="n">
+      <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" s="2" t="n">
@@ -3177,6 +4337,18 @@
       </c>
       <c r="H97" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I97" t="n">
+        <v>8</v>
+      </c>
+      <c r="J97" t="n">
+        <v>8</v>
+      </c>
+      <c r="K97" t="n">
+        <v>14</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3194,7 +4366,7 @@
       <c r="D98" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E98" s="3" t="n">
+      <c r="E98" t="n">
         <v>0</v>
       </c>
       <c r="F98" s="2" t="n">
@@ -3205,6 +4377,18 @@
       </c>
       <c r="H98" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I98" t="n">
+        <v>12</v>
+      </c>
+      <c r="J98" t="n">
+        <v>12</v>
+      </c>
+      <c r="K98" t="n">
+        <v>14</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3222,7 +4406,7 @@
       <c r="D99" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E99" s="3" t="n">
+      <c r="E99" t="n">
         <v>0</v>
       </c>
       <c r="F99" s="2" t="n">
@@ -3233,6 +4417,18 @@
       </c>
       <c r="H99" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I99" t="n">
+        <v>12</v>
+      </c>
+      <c r="J99" t="n">
+        <v>12</v>
+      </c>
+      <c r="K99" t="n">
+        <v>14</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3244,13 +4440,13 @@
       <c r="B100" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C100" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D100" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E100" s="3" t="n">
+      <c r="C100" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E100" t="n">
         <v>0</v>
       </c>
       <c r="F100" s="2" t="n">
@@ -3259,7 +4455,19 @@
       <c r="G100" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H100" s="3" t="n">
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>7</v>
+      </c>
+      <c r="J100" t="n">
+        <v>7</v>
+      </c>
+      <c r="K100" t="n">
+        <v>14</v>
+      </c>
+      <c r="L100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3275,8 +4483,8 @@
       <c r="C101" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D101" s="2" t="n">
-        <v>2</v>
+      <c r="D101" s="4" t="n">
+        <v>3</v>
       </c>
       <c r="E101" s="2" t="n">
         <v>2</v>
@@ -3289,6 +4497,18 @@
       </c>
       <c r="H101" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I101" t="n">
+        <v>15</v>
+      </c>
+      <c r="J101" t="n">
+        <v>15</v>
+      </c>
+      <c r="K101" t="n">
+        <v>14</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -3297,7 +4517,7 @@
           <t>2201ME11 Anirudh Singh</t>
         </is>
       </c>
-      <c r="B102" s="3" t="n">
+      <c r="B102" t="n">
         <v>0</v>
       </c>
       <c r="C102" s="2" t="n">
@@ -3306,17 +4526,29 @@
       <c r="D102" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E102" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F102" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G102" s="3" t="n">
+      <c r="E102" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F102" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G102" t="n">
         <v>0</v>
       </c>
       <c r="H102" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I102" t="n">
+        <v>13</v>
+      </c>
+      <c r="J102" t="n">
+        <v>13</v>
+      </c>
+      <c r="K102" t="n">
+        <v>14</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -3346,6 +4578,18 @@
       <c r="H103" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I103" t="n">
+        <v>14</v>
+      </c>
+      <c r="J103" t="n">
+        <v>14</v>
+      </c>
+      <c r="K103" t="n">
+        <v>14</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -3374,6 +4618,18 @@
       <c r="H104" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I104" t="n">
+        <v>14</v>
+      </c>
+      <c r="J104" t="n">
+        <v>14</v>
+      </c>
+      <c r="K104" t="n">
+        <v>14</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -3390,7 +4646,7 @@
       <c r="D105" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E105" s="4" t="n">
+      <c r="E105" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F105" s="2" t="n">
@@ -3401,6 +4657,18 @@
       </c>
       <c r="H105" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I105" t="n">
+        <v>13</v>
+      </c>
+      <c r="J105" t="n">
+        <v>13</v>
+      </c>
+      <c r="K105" t="n">
+        <v>14</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -3430,6 +4698,18 @@
       <c r="H106" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I106" t="n">
+        <v>14</v>
+      </c>
+      <c r="J106" t="n">
+        <v>14</v>
+      </c>
+      <c r="K106" t="n">
+        <v>14</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -3458,6 +4738,18 @@
       <c r="H107" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I107" t="n">
+        <v>14</v>
+      </c>
+      <c r="J107" t="n">
+        <v>14</v>
+      </c>
+      <c r="K107" t="n">
+        <v>14</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -3471,19 +4763,31 @@
       <c r="C108" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D108" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E108" s="3" t="n">
+      <c r="D108" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E108" t="n">
         <v>0</v>
       </c>
       <c r="F108" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G108" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H108" s="3" t="n">
+      <c r="G108" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>8</v>
+      </c>
+      <c r="J108" t="n">
+        <v>8</v>
+      </c>
+      <c r="K108" t="n">
+        <v>14</v>
+      </c>
+      <c r="L108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3514,6 +4818,18 @@
       <c r="H109" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I109" t="n">
+        <v>14</v>
+      </c>
+      <c r="J109" t="n">
+        <v>14</v>
+      </c>
+      <c r="K109" t="n">
+        <v>14</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -3530,17 +4846,29 @@
       <c r="D110" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E110" s="4" t="n">
+      <c r="E110" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F110" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G110" s="4" t="n">
+      <c r="G110" s="3" t="n">
         <v>1</v>
       </c>
       <c r="H110" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I110" t="n">
+        <v>12</v>
+      </c>
+      <c r="J110" t="n">
+        <v>12</v>
+      </c>
+      <c r="K110" t="n">
+        <v>14</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -3555,20 +4883,32 @@
       <c r="C111" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D111" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E111" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F111" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G111" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H111" s="4" t="n">
-        <v>1</v>
+      <c r="D111" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E111" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F111" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G111" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H111" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>9</v>
+      </c>
+      <c r="J111" t="n">
+        <v>9</v>
+      </c>
+      <c r="K111" t="n">
+        <v>14</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -3577,26 +4917,38 @@
           <t>2201ME36 Kalpana Kumari</t>
         </is>
       </c>
-      <c r="B112" s="4" t="n">
+      <c r="B112" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C112" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D112" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E112" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F112" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G112" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H112" s="4" t="n">
-        <v>1</v>
+      <c r="D112" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E112" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F112" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G112" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H112" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>8</v>
+      </c>
+      <c r="J112" t="n">
+        <v>8</v>
+      </c>
+      <c r="K112" t="n">
+        <v>14</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -3626,6 +4978,18 @@
       <c r="H113" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I113" t="n">
+        <v>14</v>
+      </c>
+      <c r="J113" t="n">
+        <v>14</v>
+      </c>
+      <c r="K113" t="n">
+        <v>14</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -3642,16 +5006,28 @@
       <c r="D114" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E114" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F114" s="2" t="n">
-        <v>2</v>
+      <c r="E114" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F114" s="4" t="n">
+        <v>3</v>
       </c>
       <c r="G114" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H114" s="3" t="n">
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>15</v>
+      </c>
+      <c r="J114" t="n">
+        <v>15</v>
+      </c>
+      <c r="K114" t="n">
+        <v>14</v>
+      </c>
+      <c r="L114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3670,7 +5046,7 @@
       <c r="D115" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E115" s="4" t="n">
+      <c r="E115" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F115" s="2" t="n">
@@ -3681,6 +5057,18 @@
       </c>
       <c r="H115" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I115" t="n">
+        <v>13</v>
+      </c>
+      <c r="J115" t="n">
+        <v>13</v>
+      </c>
+      <c r="K115" t="n">
+        <v>14</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -3710,6 +5098,18 @@
       <c r="H116" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I116" t="n">
+        <v>14</v>
+      </c>
+      <c r="J116" t="n">
+        <v>14</v>
+      </c>
+      <c r="K116" t="n">
+        <v>14</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -3726,7 +5126,7 @@
       <c r="D117" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E117" s="3" t="n">
+      <c r="E117" t="n">
         <v>0</v>
       </c>
       <c r="F117" s="2" t="n">
@@ -3735,8 +5135,20 @@
       <c r="G117" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H117" s="3" t="n">
-        <v>0</v>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>12</v>
+      </c>
+      <c r="J117" t="n">
+        <v>10</v>
+      </c>
+      <c r="K117" t="n">
+        <v>14</v>
+      </c>
+      <c r="L117" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="118">
@@ -3751,7 +5163,7 @@
       <c r="C118" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D118" s="4" t="n">
+      <c r="D118" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E118" s="2" t="n">
@@ -3763,8 +5175,20 @@
       <c r="G118" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H118" s="4" t="n">
-        <v>1</v>
+      <c r="H118" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>12</v>
+      </c>
+      <c r="J118" t="n">
+        <v>12</v>
+      </c>
+      <c r="K118" t="n">
+        <v>14</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -3794,6 +5218,18 @@
       <c r="H119" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I119" t="n">
+        <v>14</v>
+      </c>
+      <c r="J119" t="n">
+        <v>14</v>
+      </c>
+      <c r="K119" t="n">
+        <v>14</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -3813,7 +5249,7 @@
       <c r="E120" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F120" s="3" t="n">
+      <c r="F120" t="n">
         <v>0</v>
       </c>
       <c r="G120" s="2" t="n">
@@ -3821,6 +5257,18 @@
       </c>
       <c r="H120" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I120" t="n">
+        <v>12</v>
+      </c>
+      <c r="J120" t="n">
+        <v>12</v>
+      </c>
+      <c r="K120" t="n">
+        <v>14</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -3829,26 +5277,38 @@
           <t>2201ME62 Shayan Zafar Ansari</t>
         </is>
       </c>
-      <c r="B121" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C121" s="4" t="n">
+      <c r="B121" t="n">
+        <v>0</v>
+      </c>
+      <c r="C121" s="3" t="n">
         <v>1</v>
       </c>
       <c r="D121" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E121" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F121" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G121" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H121" s="3" t="n">
-        <v>0</v>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G121" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>6</v>
+      </c>
+      <c r="J121" t="n">
+        <v>5</v>
+      </c>
+      <c r="K121" t="n">
+        <v>14</v>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -3863,10 +5323,10 @@
       <c r="C122" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D122" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E122" s="3" t="n">
+      <c r="D122" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E122" t="n">
         <v>0</v>
       </c>
       <c r="F122" s="2" t="n">
@@ -3877,6 +5337,18 @@
       </c>
       <c r="H122" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I122" t="n">
+        <v>13</v>
+      </c>
+      <c r="J122" t="n">
+        <v>13</v>
+      </c>
+      <c r="K122" t="n">
+        <v>14</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -3891,20 +5363,32 @@
       <c r="C123" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D123" s="4" t="n">
+      <c r="D123" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E123" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F123" s="2" t="n">
-        <v>2</v>
+      <c r="F123" s="4" t="n">
+        <v>3</v>
       </c>
       <c r="G123" s="2" t="n">
         <v>2</v>
       </c>
       <c r="H123" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I123" t="n">
+        <v>14</v>
+      </c>
+      <c r="J123" t="n">
+        <v>14</v>
+      </c>
+      <c r="K123" t="n">
+        <v>14</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -3922,10 +5406,10 @@
       <c r="D124" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E124" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F124" s="3" t="n">
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="n">
         <v>0</v>
       </c>
       <c r="G124" s="2" t="n">
@@ -3933,6 +5417,18 @@
       </c>
       <c r="H124" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I124" t="n">
+        <v>10</v>
+      </c>
+      <c r="J124" t="n">
+        <v>10</v>
+      </c>
+      <c r="K124" t="n">
+        <v>14</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -3956,11 +5452,23 @@
       <c r="F125" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G125" s="3" t="n">
+      <c r="G125" t="n">
         <v>0</v>
       </c>
       <c r="H125" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I125" t="n">
+        <v>12</v>
+      </c>
+      <c r="J125" t="n">
+        <v>12</v>
+      </c>
+      <c r="K125" t="n">
+        <v>14</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -3984,11 +5492,23 @@
       <c r="F126" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G126" s="3" t="n">
+      <c r="G126" t="n">
         <v>0</v>
       </c>
       <c r="H126" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I126" t="n">
+        <v>12</v>
+      </c>
+      <c r="J126" t="n">
+        <v>12</v>
+      </c>
+      <c r="K126" t="n">
+        <v>14</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -4018,6 +5538,18 @@
       <c r="H127" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I127" t="n">
+        <v>14</v>
+      </c>
+      <c r="J127" t="n">
+        <v>14</v>
+      </c>
+      <c r="K127" t="n">
+        <v>14</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -4025,7 +5557,7 @@
           <t>2201MM09 Chandradeep Roy</t>
         </is>
       </c>
-      <c r="B128" s="3" t="n">
+      <c r="B128" t="n">
         <v>0</v>
       </c>
       <c r="C128" s="2" t="n">
@@ -4037,13 +5569,25 @@
       <c r="E128" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F128" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G128" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H128" s="3" t="n">
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>6</v>
+      </c>
+      <c r="J128" t="n">
+        <v>6</v>
+      </c>
+      <c r="K128" t="n">
+        <v>14</v>
+      </c>
+      <c r="L128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4074,6 +5618,18 @@
       <c r="H129" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I129" t="n">
+        <v>14</v>
+      </c>
+      <c r="J129" t="n">
+        <v>14</v>
+      </c>
+      <c r="K129" t="n">
+        <v>14</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -4081,8 +5637,8 @@
           <t>2201MM13 Kashiya Rutvikbhai Madhubhai</t>
         </is>
       </c>
-      <c r="B130" s="2" t="n">
-        <v>2</v>
+      <c r="B130" s="4" t="n">
+        <v>4</v>
       </c>
       <c r="C130" s="2" t="n">
         <v>2</v>
@@ -4101,6 +5657,18 @@
       </c>
       <c r="H130" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I130" t="n">
+        <v>16</v>
+      </c>
+      <c r="J130" t="n">
+        <v>16</v>
+      </c>
+      <c r="K130" t="n">
+        <v>14</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -4130,6 +5698,18 @@
       <c r="H131" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I131" t="n">
+        <v>14</v>
+      </c>
+      <c r="J131" t="n">
+        <v>14</v>
+      </c>
+      <c r="K131" t="n">
+        <v>14</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -4143,7 +5723,7 @@
       <c r="C132" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D132" s="3" t="n">
+      <c r="D132" t="n">
         <v>0</v>
       </c>
       <c r="E132" s="2" t="n">
@@ -4152,10 +5732,22 @@
       <c r="F132" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G132" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H132" s="3" t="n">
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>8</v>
+      </c>
+      <c r="J132" t="n">
+        <v>8</v>
+      </c>
+      <c r="K132" t="n">
+        <v>14</v>
+      </c>
+      <c r="L132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4165,8 +5757,8 @@
           <t>2201MM17 Kumar Nalin Singh</t>
         </is>
       </c>
-      <c r="B133" s="2" t="n">
-        <v>2</v>
+      <c r="B133" s="4" t="n">
+        <v>3</v>
       </c>
       <c r="C133" s="2" t="n">
         <v>2</v>
@@ -4183,7 +5775,19 @@
       <c r="G133" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H133" s="3" t="n">
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>13</v>
+      </c>
+      <c r="J133" t="n">
+        <v>13</v>
+      </c>
+      <c r="K133" t="n">
+        <v>14</v>
+      </c>
+      <c r="L133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4214,6 +5818,18 @@
       <c r="H134" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I134" t="n">
+        <v>14</v>
+      </c>
+      <c r="J134" t="n">
+        <v>14</v>
+      </c>
+      <c r="K134" t="n">
+        <v>14</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -4227,7 +5843,7 @@
       <c r="C135" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D135" s="4" t="n">
+      <c r="D135" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E135" s="2" t="n">
@@ -4236,11 +5852,23 @@
       <c r="F135" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G135" s="2" t="n">
-        <v>2</v>
+      <c r="G135" s="4" t="n">
+        <v>3</v>
       </c>
       <c r="H135" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I135" t="n">
+        <v>14</v>
+      </c>
+      <c r="J135" t="n">
+        <v>14</v>
+      </c>
+      <c r="K135" t="n">
+        <v>14</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -4270,6 +5898,18 @@
       <c r="H136" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I136" t="n">
+        <v>14</v>
+      </c>
+      <c r="J136" t="n">
+        <v>14</v>
+      </c>
+      <c r="K136" t="n">
+        <v>14</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -4298,6 +5938,18 @@
       <c r="H137" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I137" t="n">
+        <v>14</v>
+      </c>
+      <c r="J137" t="n">
+        <v>14</v>
+      </c>
+      <c r="K137" t="n">
+        <v>14</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -4305,26 +5957,38 @@
           <t>2201PH01 Adhila Aslam</t>
         </is>
       </c>
-      <c r="B138" s="4" t="n">
+      <c r="B138" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C138" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D138" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E138" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F138" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G138" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H138" s="4" t="n">
-        <v>1</v>
+      <c r="D138" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E138" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F138" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G138" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H138" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>8</v>
+      </c>
+      <c r="J138" t="n">
+        <v>8</v>
+      </c>
+      <c r="K138" t="n">
+        <v>14</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -4339,13 +6003,13 @@
       <c r="C139" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D139" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E139" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F139" s="4" t="n">
+      <c r="D139" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G139" s="2" t="n">
@@ -4353,6 +6017,18 @@
       </c>
       <c r="H139" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I139" t="n">
+        <v>10</v>
+      </c>
+      <c r="J139" t="n">
+        <v>10</v>
+      </c>
+      <c r="K139" t="n">
+        <v>14</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -4367,7 +6043,7 @@
       <c r="C140" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D140" s="4" t="n">
+      <c r="D140" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E140" s="2" t="n">
@@ -4381,6 +6057,18 @@
       </c>
       <c r="H140" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I140" t="n">
+        <v>13</v>
+      </c>
+      <c r="J140" t="n">
+        <v>13</v>
+      </c>
+      <c r="K140" t="n">
+        <v>14</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -4395,20 +6083,32 @@
       <c r="C141" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D141" s="4" t="n">
+      <c r="D141" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E141" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F141" s="3" t="n">
+      <c r="F141" t="n">
         <v>0</v>
       </c>
       <c r="G141" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H141" s="2" t="n">
-        <v>2</v>
+      <c r="H141" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I141" t="n">
+        <v>12</v>
+      </c>
+      <c r="J141" t="n">
+        <v>12</v>
+      </c>
+      <c r="K141" t="n">
+        <v>14</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -4423,19 +6123,31 @@
       <c r="C142" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D142" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E142" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F142" s="3" t="n">
+      <c r="D142" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E142" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F142" t="n">
         <v>0</v>
       </c>
       <c r="G142" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H142" s="3" t="n">
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>10</v>
+      </c>
+      <c r="J142" t="n">
+        <v>10</v>
+      </c>
+      <c r="K142" t="n">
+        <v>14</v>
+      </c>
+      <c r="L142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4445,8 +6157,8 @@
           <t>2201PH13 Harsh Joshi</t>
         </is>
       </c>
-      <c r="B143" s="2" t="n">
-        <v>2</v>
+      <c r="B143" s="4" t="n">
+        <v>3</v>
       </c>
       <c r="C143" s="2" t="n">
         <v>2</v>
@@ -4457,7 +6169,7 @@
       <c r="E143" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F143" s="3" t="n">
+      <c r="F143" t="n">
         <v>0</v>
       </c>
       <c r="G143" s="2" t="n">
@@ -4465,6 +6177,18 @@
       </c>
       <c r="H143" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I143" t="n">
+        <v>13</v>
+      </c>
+      <c r="J143" t="n">
+        <v>13</v>
+      </c>
+      <c r="K143" t="n">
+        <v>14</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -4494,6 +6218,18 @@
       <c r="H144" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I144" t="n">
+        <v>14</v>
+      </c>
+      <c r="J144" t="n">
+        <v>14</v>
+      </c>
+      <c r="K144" t="n">
+        <v>14</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -4504,7 +6240,7 @@
       <c r="B145" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C145" s="4" t="n">
+      <c r="C145" s="3" t="n">
         <v>1</v>
       </c>
       <c r="D145" s="2" t="n">
@@ -4521,6 +6257,18 @@
       </c>
       <c r="H145" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I145" t="n">
+        <v>13</v>
+      </c>
+      <c r="J145" t="n">
+        <v>13</v>
+      </c>
+      <c r="K145" t="n">
+        <v>14</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -4550,6 +6298,18 @@
       <c r="H146" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I146" t="n">
+        <v>14</v>
+      </c>
+      <c r="J146" t="n">
+        <v>14</v>
+      </c>
+      <c r="K146" t="n">
+        <v>14</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -4578,6 +6338,18 @@
       <c r="H147" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="I147" t="n">
+        <v>14</v>
+      </c>
+      <c r="J147" t="n">
+        <v>14</v>
+      </c>
+      <c r="K147" t="n">
+        <v>14</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -4588,8 +6360,8 @@
       <c r="B148" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C148" s="2" t="n">
-        <v>2</v>
+      <c r="C148" s="4" t="n">
+        <v>3</v>
       </c>
       <c r="D148" s="2" t="n">
         <v>2</v>
@@ -4605,6 +6377,18 @@
       </c>
       <c r="H148" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I148" t="n">
+        <v>15</v>
+      </c>
+      <c r="J148" t="n">
+        <v>15</v>
+      </c>
+      <c r="K148" t="n">
+        <v>14</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -4616,16 +6400,16 @@
       <c r="B149" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C149" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D149" s="4" t="n">
+      <c r="C149" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D149" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E149" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F149" s="4" t="n">
+      <c r="F149" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G149" s="2" t="n">
@@ -4633,6 +6417,18 @@
       </c>
       <c r="H149" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I149" t="n">
+        <v>13</v>
+      </c>
+      <c r="J149" t="n">
+        <v>13</v>
+      </c>
+      <c r="K149" t="n">
+        <v>14</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -4653,14 +6449,26 @@
       <c r="E150" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F150" s="2" t="n">
-        <v>2</v>
+      <c r="F150" s="4" t="n">
+        <v>3</v>
       </c>
       <c r="G150" s="2" t="n">
         <v>2</v>
       </c>
       <c r="H150" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I150" t="n">
+        <v>15</v>
+      </c>
+      <c r="J150" t="n">
+        <v>15</v>
+      </c>
+      <c r="K150" t="n">
+        <v>14</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -4669,26 +6477,38 @@
           <t>2201PH34 Dolly Singh</t>
         </is>
       </c>
-      <c r="B151" s="4" t="n">
+      <c r="B151" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C151" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D151" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E151" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F151" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G151" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H151" s="4" t="n">
-        <v>1</v>
+      <c r="D151" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E151" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F151" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G151" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H151" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>8</v>
+      </c>
+      <c r="J151" t="n">
+        <v>8</v>
+      </c>
+      <c r="K151" t="n">
+        <v>14</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -4697,17 +6517,17 @@
           <t>2201PH35 Himanshu Patel</t>
         </is>
       </c>
-      <c r="B152" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C152" s="2" t="n">
-        <v>2</v>
+      <c r="B152" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C152" s="4" t="n">
+        <v>3</v>
       </c>
       <c r="D152" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E152" s="2" t="n">
-        <v>2</v>
+      <c r="E152" s="4" t="n">
+        <v>3</v>
       </c>
       <c r="F152" s="2" t="n">
         <v>2</v>
@@ -4717,6 +6537,18 @@
       </c>
       <c r="H152" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="I152" t="n">
+        <v>17</v>
+      </c>
+      <c r="J152" t="n">
+        <v>17</v>
+      </c>
+      <c r="K152" t="n">
+        <v>14</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
